--- a/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
+++ b/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\31. district\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D37285E-D0B0-41FA-B020-AE432D778D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E4A6D8-6995-46E0-9DE9-9861029AD0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -216,10 +216,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>HJU-ad35asd-s</t>
   </si>
   <si>
-    <t>HJU-ad35asd-s</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -776,10 +776,10 @@
     </row>
     <row r="2" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>

--- a/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
+++ b/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E4A6D8-6995-46E0-9DE9-9861029AD0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9805A4A-F84A-477C-8A71-2CD459F672E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>HJU-ad35asd-s</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
+++ b/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\31. district\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9805A4A-F84A-477C-8A71-2CD459F672E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2721E-7765-45CC-B46A-4FA4F460087A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>contractNo</t>
   </si>
@@ -210,9 +210,6 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>U0105556078229000</t>
-  </si>
-  <si>
     <t>AS9</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -586,8 +586,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFB996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,10 +776,10 @@
     </row>
     <row r="2" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -858,20 +858,18 @@
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="AM2" s="3"/>
       <c r="AN2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>

--- a/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
+++ b/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\31. district\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2721E-7765-45CC-B46A-4FA4F460087A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E42F7-2624-474F-8773-9D36C2B22356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -216,10 +216,10 @@
     <t>HJU-ad35asd-s</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -863,7 +863,7 @@
         <v>49</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>44</v>

--- a/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
+++ b/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E42F7-2624-474F-8773-9D36C2B22356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF09035C-5E97-41BD-9C4E-DB3EFF32546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -219,7 +219,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -586,59 +586,58 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFB996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" style="1" customWidth="1"/>
+    <col min="32" max="33" width="8.7109375" style="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="1" customWidth="1"/>
-    <col min="35" max="35" width="42.77734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="42.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="10" style="1" customWidth="1"/>
-    <col min="37" max="37" width="12.77734375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="14.44140625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="11.6640625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="17.21875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="18.44140625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.21875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="8.77734375" style="1" customWidth="1"/>
-    <col min="44" max="16378" width="2.6640625" style="1"/>
-    <col min="16381" max="16384" width="2.6640625" style="1"/>
+    <col min="37" max="37" width="12.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="17.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="10.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="8.7109375" style="1" customWidth="1"/>
+    <col min="44" max="16378" width="2.7109375" style="1"/>
+    <col min="16381" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +773,7 @@
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
     </row>
-    <row r="2" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -877,7 +876,7 @@
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
     </row>
-    <row r="3" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -929,7 +928,7 @@
       <c r="XFA3"/>
       <c r="XFB3"/>
     </row>
-    <row r="4" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -979,7 +978,7 @@
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
     </row>
-    <row r="5" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1029,7 +1028,7 @@
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
     </row>
-    <row r="6" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1079,7 +1078,7 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
     </row>
-    <row r="7" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1127,7 +1126,7 @@
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
     </row>
-    <row r="8" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -1176,7 +1175,7 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
     </row>
-    <row r="9" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1225,7 +1224,7 @@
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
     </row>
-    <row r="10" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1274,7 +1273,7 @@
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
     </row>
-    <row r="11" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1323,7 +1322,7 @@
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
     </row>
-    <row r="12" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1373,7 +1372,7 @@
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
     </row>
-    <row r="13" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1422,7 +1421,7 @@
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
     </row>
-    <row r="14" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1472,7 +1471,7 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
     </row>
-    <row r="15" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1522,7 +1521,7 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
     </row>
-    <row r="16" spans="1:48 16381:16382" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48 16381:16382" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1572,7 +1571,7 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
     </row>
-    <row r="17" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1622,7 +1621,7 @@
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
     </row>
-    <row r="18" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1672,7 +1671,7 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
     </row>
-    <row r="19" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1722,7 +1721,7 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
     </row>
-    <row r="20" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1772,7 +1771,7 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
     </row>
-    <row r="21" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1822,7 +1821,7 @@
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
     </row>
-    <row r="22" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1872,7 +1871,7 @@
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
     </row>
-    <row r="23" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1922,7 +1921,7 @@
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
     </row>
-    <row r="24" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1972,7 +1971,7 @@
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
     </row>
-    <row r="25" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2022,7 +2021,7 @@
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
     </row>
-    <row r="26" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2072,7 +2071,7 @@
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
     </row>
-    <row r="27" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2122,7 +2121,7 @@
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
     </row>
-    <row r="28" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2172,7 +2171,7 @@
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
     </row>
-    <row r="29" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2222,7 +2221,7 @@
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
     </row>
-    <row r="30" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2272,7 +2271,7 @@
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
     </row>
-    <row r="31" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2322,7 +2321,7 @@
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
     </row>
-    <row r="32" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2372,7 +2371,7 @@
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
     </row>
-    <row r="33" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2422,7 +2421,7 @@
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
     </row>
-    <row r="34" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2472,7 +2471,7 @@
       <c r="AU34" s="2"/>
       <c r="AV34" s="2"/>
     </row>
-    <row r="35" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2522,7 +2521,7 @@
       <c r="AU35" s="2"/>
       <c r="AV35" s="2"/>
     </row>
-    <row r="36" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2572,7 +2571,7 @@
       <c r="AU36" s="2"/>
       <c r="AV36" s="2"/>
     </row>
-    <row r="37" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2622,7 +2621,7 @@
       <c r="AU37" s="2"/>
       <c r="AV37" s="2"/>
     </row>
-    <row r="38" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2672,7 +2671,7 @@
       <c r="AU38" s="2"/>
       <c r="AV38" s="2"/>
     </row>
-    <row r="39" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2722,7 +2721,7 @@
       <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
     </row>
-    <row r="40" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2772,7 +2771,7 @@
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
     </row>
-    <row r="41" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2822,7 +2821,7 @@
       <c r="AU41" s="2"/>
       <c r="AV41" s="2"/>
     </row>
-    <row r="42" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2872,7 +2871,7 @@
       <c r="AU42" s="2"/>
       <c r="AV42" s="2"/>
     </row>
-    <row r="43" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2922,7 +2921,7 @@
       <c r="AU43" s="2"/>
       <c r="AV43" s="2"/>
     </row>
-    <row r="44" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2972,7 +2971,7 @@
       <c r="AU44" s="2"/>
       <c r="AV44" s="2"/>
     </row>
-    <row r="45" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3022,7 +3021,7 @@
       <c r="AU45" s="2"/>
       <c r="AV45" s="2"/>
     </row>
-    <row r="46" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3072,7 +3071,7 @@
       <c r="AU46" s="2"/>
       <c r="AV46" s="2"/>
     </row>
-    <row r="47" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3122,7 +3121,7 @@
       <c r="AU47" s="2"/>
       <c r="AV47" s="2"/>
     </row>
-    <row r="48" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3172,7 +3171,7 @@
       <c r="AU48" s="2"/>
       <c r="AV48" s="2"/>
     </row>
-    <row r="49" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3222,7 +3221,7 @@
       <c r="AU49" s="2"/>
       <c r="AV49" s="2"/>
     </row>
-    <row r="50" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3272,7 +3271,7 @@
       <c r="AU50" s="2"/>
       <c r="AV50" s="2"/>
     </row>
-    <row r="51" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3322,7 +3321,7 @@
       <c r="AU51" s="2"/>
       <c r="AV51" s="2"/>
     </row>
-    <row r="52" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3372,7 +3371,7 @@
       <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
     </row>
-    <row r="53" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3422,7 +3421,7 @@
       <c r="AU53" s="2"/>
       <c r="AV53" s="2"/>
     </row>
-    <row r="54" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3472,7 +3471,7 @@
       <c r="AU54" s="2"/>
       <c r="AV54" s="2"/>
     </row>
-    <row r="55" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3522,7 +3521,7 @@
       <c r="AU55" s="2"/>
       <c r="AV55" s="2"/>
     </row>
-    <row r="56" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3572,7 +3571,7 @@
       <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
     </row>
-    <row r="57" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3622,7 +3621,7 @@
       <c r="AU57" s="2"/>
       <c r="AV57" s="2"/>
     </row>
-    <row r="58" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3672,7 +3671,7 @@
       <c r="AU58" s="2"/>
       <c r="AV58" s="2"/>
     </row>
-    <row r="59" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3722,7 +3721,7 @@
       <c r="AU59" s="2"/>
       <c r="AV59" s="2"/>
     </row>
-    <row r="60" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3772,7 +3771,7 @@
       <c r="AU60" s="2"/>
       <c r="AV60" s="2"/>
     </row>
-    <row r="61" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3822,7 +3821,7 @@
       <c r="AU61" s="2"/>
       <c r="AV61" s="2"/>
     </row>
-    <row r="62" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3872,7 +3871,7 @@
       <c r="AU62" s="2"/>
       <c r="AV62" s="2"/>
     </row>
-    <row r="63" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3922,7 +3921,7 @@
       <c r="AU63" s="2"/>
       <c r="AV63" s="2"/>
     </row>
-    <row r="64" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3972,7 +3971,7 @@
       <c r="AU64" s="2"/>
       <c r="AV64" s="2"/>
     </row>
-    <row r="65" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4022,7 +4021,7 @@
       <c r="AU65" s="2"/>
       <c r="AV65" s="2"/>
     </row>
-    <row r="66" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4072,7 +4071,7 @@
       <c r="AU66" s="2"/>
       <c r="AV66" s="2"/>
     </row>
-    <row r="67" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4122,7 +4121,7 @@
       <c r="AU67" s="2"/>
       <c r="AV67" s="2"/>
     </row>
-    <row r="68" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4172,7 +4171,7 @@
       <c r="AU68" s="2"/>
       <c r="AV68" s="2"/>
     </row>
-    <row r="69" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4222,7 +4221,7 @@
       <c r="AU69" s="2"/>
       <c r="AV69" s="2"/>
     </row>
-    <row r="70" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4272,7 +4271,7 @@
       <c r="AU70" s="2"/>
       <c r="AV70" s="2"/>
     </row>
-    <row r="71" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4322,7 +4321,7 @@
       <c r="AU71" s="2"/>
       <c r="AV71" s="2"/>
     </row>
-    <row r="72" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4372,7 +4371,7 @@
       <c r="AU72" s="2"/>
       <c r="AV72" s="2"/>
     </row>
-    <row r="73" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4422,7 +4421,7 @@
       <c r="AU73" s="2"/>
       <c r="AV73" s="2"/>
     </row>
-    <row r="74" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4472,7 +4471,7 @@
       <c r="AU74" s="2"/>
       <c r="AV74" s="2"/>
     </row>
-    <row r="75" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4522,7 +4521,7 @@
       <c r="AU75" s="2"/>
       <c r="AV75" s="2"/>
     </row>
-    <row r="76" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4572,7 +4571,7 @@
       <c r="AU76" s="2"/>
       <c r="AV76" s="2"/>
     </row>
-    <row r="77" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4622,7 +4621,7 @@
       <c r="AU77" s="2"/>
       <c r="AV77" s="2"/>
     </row>
-    <row r="78" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4672,7 +4671,7 @@
       <c r="AU78" s="2"/>
       <c r="AV78" s="2"/>
     </row>
-    <row r="79" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4722,7 +4721,7 @@
       <c r="AU79" s="2"/>
       <c r="AV79" s="2"/>
     </row>
-    <row r="80" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4772,7 +4771,7 @@
       <c r="AU80" s="2"/>
       <c r="AV80" s="2"/>
     </row>
-    <row r="81" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4822,7 +4821,7 @@
       <c r="AU81" s="2"/>
       <c r="AV81" s="2"/>
     </row>
-    <row r="82" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4872,7 +4871,7 @@
       <c r="AU82" s="2"/>
       <c r="AV82" s="2"/>
     </row>
-    <row r="83" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4922,7 +4921,7 @@
       <c r="AU83" s="2"/>
       <c r="AV83" s="2"/>
     </row>
-    <row r="84" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4972,7 +4971,7 @@
       <c r="AU84" s="2"/>
       <c r="AV84" s="2"/>
     </row>
-    <row r="85" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5022,7 +5021,7 @@
       <c r="AU85" s="2"/>
       <c r="AV85" s="2"/>
     </row>
-    <row r="86" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5072,7 +5071,7 @@
       <c r="AU86" s="2"/>
       <c r="AV86" s="2"/>
     </row>
-    <row r="87" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5122,7 +5121,7 @@
       <c r="AU87" s="2"/>
       <c r="AV87" s="2"/>
     </row>
-    <row r="88" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5172,7 +5171,7 @@
       <c r="AU88" s="2"/>
       <c r="AV88" s="2"/>
     </row>
-    <row r="89" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5222,7 +5221,7 @@
       <c r="AU89" s="2"/>
       <c r="AV89" s="2"/>
     </row>
-    <row r="90" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5272,7 +5271,7 @@
       <c r="AU90" s="2"/>
       <c r="AV90" s="2"/>
     </row>
-    <row r="91" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5322,7 +5321,7 @@
       <c r="AU91" s="2"/>
       <c r="AV91" s="2"/>
     </row>
-    <row r="92" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5372,7 +5371,7 @@
       <c r="AU92" s="2"/>
       <c r="AV92" s="2"/>
     </row>
-    <row r="93" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5422,7 +5421,7 @@
       <c r="AU93" s="2"/>
       <c r="AV93" s="2"/>
     </row>
-    <row r="94" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5472,7 +5471,7 @@
       <c r="AU94" s="2"/>
       <c r="AV94" s="2"/>
     </row>
-    <row r="95" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5522,7 +5521,7 @@
       <c r="AU95" s="2"/>
       <c r="AV95" s="2"/>
     </row>
-    <row r="96" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5572,7 +5571,7 @@
       <c r="AU96" s="2"/>
       <c r="AV96" s="2"/>
     </row>
-    <row r="97" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5622,7 +5621,7 @@
       <c r="AU97" s="2"/>
       <c r="AV97" s="2"/>
     </row>
-    <row r="98" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5672,7 +5671,7 @@
       <c r="AU98" s="2"/>
       <c r="AV98" s="2"/>
     </row>
-    <row r="99" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5722,7 +5721,7 @@
       <c r="AU99" s="2"/>
       <c r="AV99" s="2"/>
     </row>
-    <row r="100" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5772,7 +5771,7 @@
       <c r="AU100" s="2"/>
       <c r="AV100" s="2"/>
     </row>
-    <row r="101" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5822,7 +5821,7 @@
       <c r="AU101" s="2"/>
       <c r="AV101" s="2"/>
     </row>
-    <row r="102" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5872,7 +5871,7 @@
       <c r="AU102" s="2"/>
       <c r="AV102" s="2"/>
     </row>
-    <row r="103" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5922,7 +5921,7 @@
       <c r="AU103" s="2"/>
       <c r="AV103" s="2"/>
     </row>
-    <row r="104" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5972,7 +5971,7 @@
       <c r="AU104" s="2"/>
       <c r="AV104" s="2"/>
     </row>
-    <row r="105" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6022,7 +6021,7 @@
       <c r="AU105" s="2"/>
       <c r="AV105" s="2"/>
     </row>
-    <row r="106" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6072,7 +6071,7 @@
       <c r="AU106" s="2"/>
       <c r="AV106" s="2"/>
     </row>
-    <row r="107" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6122,7 +6121,7 @@
       <c r="AU107" s="2"/>
       <c r="AV107" s="2"/>
     </row>
-    <row r="108" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6172,7 +6171,7 @@
       <c r="AU108" s="2"/>
       <c r="AV108" s="2"/>
     </row>
-    <row r="109" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6222,7 +6221,7 @@
       <c r="AU109" s="2"/>
       <c r="AV109" s="2"/>
     </row>
-    <row r="110" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6272,7 +6271,7 @@
       <c r="AU110" s="2"/>
       <c r="AV110" s="2"/>
     </row>
-    <row r="111" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6322,7 +6321,7 @@
       <c r="AU111" s="2"/>
       <c r="AV111" s="2"/>
     </row>
-    <row r="112" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6372,7 +6371,7 @@
       <c r="AU112" s="2"/>
       <c r="AV112" s="2"/>
     </row>
-    <row r="113" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6422,7 +6421,7 @@
       <c r="AU113" s="2"/>
       <c r="AV113" s="2"/>
     </row>
-    <row r="114" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6472,7 +6471,7 @@
       <c r="AU114" s="2"/>
       <c r="AV114" s="2"/>
     </row>
-    <row r="115" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6522,7 +6521,7 @@
       <c r="AU115" s="2"/>
       <c r="AV115" s="2"/>
     </row>
-    <row r="116" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6572,7 +6571,7 @@
       <c r="AU116" s="2"/>
       <c r="AV116" s="2"/>
     </row>
-    <row r="117" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6622,7 +6621,7 @@
       <c r="AU117" s="2"/>
       <c r="AV117" s="2"/>
     </row>
-    <row r="118" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6672,7 +6671,7 @@
       <c r="AU118" s="2"/>
       <c r="AV118" s="2"/>
     </row>
-    <row r="119" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6722,7 +6721,7 @@
       <c r="AU119" s="2"/>
       <c r="AV119" s="2"/>
     </row>
-    <row r="120" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6772,7 +6771,7 @@
       <c r="AU120" s="2"/>
       <c r="AV120" s="2"/>
     </row>
-    <row r="121" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6822,7 +6821,7 @@
       <c r="AU121" s="2"/>
       <c r="AV121" s="2"/>
     </row>
-    <row r="122" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6872,7 +6871,7 @@
       <c r="AU122" s="2"/>
       <c r="AV122" s="2"/>
     </row>
-    <row r="123" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6922,7 +6921,7 @@
       <c r="AU123" s="2"/>
       <c r="AV123" s="2"/>
     </row>
-    <row r="124" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6972,7 +6971,7 @@
       <c r="AU124" s="2"/>
       <c r="AV124" s="2"/>
     </row>
-    <row r="125" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7022,7 +7021,7 @@
       <c r="AU125" s="2"/>
       <c r="AV125" s="2"/>
     </row>
-    <row r="126" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7072,7 +7071,7 @@
       <c r="AU126" s="2"/>
       <c r="AV126" s="2"/>
     </row>
-    <row r="127" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7122,7 +7121,7 @@
       <c r="AU127" s="2"/>
       <c r="AV127" s="2"/>
     </row>
-    <row r="128" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7172,7 +7171,7 @@
       <c r="AU128" s="2"/>
       <c r="AV128" s="2"/>
     </row>
-    <row r="129" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7222,7 +7221,7 @@
       <c r="AU129" s="2"/>
       <c r="AV129" s="2"/>
     </row>
-    <row r="130" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7272,7 +7271,7 @@
       <c r="AU130" s="2"/>
       <c r="AV130" s="2"/>
     </row>
-    <row r="131" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7322,7 +7321,7 @@
       <c r="AU131" s="2"/>
       <c r="AV131" s="2"/>
     </row>
-    <row r="132" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7372,7 +7371,7 @@
       <c r="AU132" s="2"/>
       <c r="AV132" s="2"/>
     </row>
-    <row r="133" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7422,7 +7421,7 @@
       <c r="AU133" s="2"/>
       <c r="AV133" s="2"/>
     </row>
-    <row r="134" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7472,7 +7471,7 @@
       <c r="AU134" s="2"/>
       <c r="AV134" s="2"/>
     </row>
-    <row r="135" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7522,7 +7521,7 @@
       <c r="AU135" s="2"/>
       <c r="AV135" s="2"/>
     </row>
-    <row r="136" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7572,7 +7571,7 @@
       <c r="AU136" s="2"/>
       <c r="AV136" s="2"/>
     </row>
-    <row r="137" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7622,7 +7621,7 @@
       <c r="AU137" s="2"/>
       <c r="AV137" s="2"/>
     </row>
-    <row r="138" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7672,7 +7671,7 @@
       <c r="AU138" s="2"/>
       <c r="AV138" s="2"/>
     </row>
-    <row r="139" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7722,7 +7721,7 @@
       <c r="AU139" s="2"/>
       <c r="AV139" s="2"/>
     </row>
-    <row r="140" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7772,7 +7771,7 @@
       <c r="AU140" s="2"/>
       <c r="AV140" s="2"/>
     </row>
-    <row r="141" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7822,7 +7821,7 @@
       <c r="AU141" s="2"/>
       <c r="AV141" s="2"/>
     </row>
-    <row r="142" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7872,7 +7871,7 @@
       <c r="AU142" s="2"/>
       <c r="AV142" s="2"/>
     </row>
-    <row r="143" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7922,7 +7921,7 @@
       <c r="AU143" s="2"/>
       <c r="AV143" s="2"/>
     </row>
-    <row r="144" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7972,7 +7971,7 @@
       <c r="AU144" s="2"/>
       <c r="AV144" s="2"/>
     </row>
-    <row r="145" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8022,7 +8021,7 @@
       <c r="AU145" s="2"/>
       <c r="AV145" s="2"/>
     </row>
-    <row r="146" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8072,7 +8071,7 @@
       <c r="AU146" s="2"/>
       <c r="AV146" s="2"/>
     </row>
-    <row r="147" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8122,7 +8121,7 @@
       <c r="AU147" s="2"/>
       <c r="AV147" s="2"/>
     </row>
-    <row r="148" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8172,7 +8171,7 @@
       <c r="AU148" s="2"/>
       <c r="AV148" s="2"/>
     </row>
-    <row r="149" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8222,7 +8221,7 @@
       <c r="AU149" s="2"/>
       <c r="AV149" s="2"/>
     </row>
-    <row r="150" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8272,7 +8271,7 @@
       <c r="AU150" s="2"/>
       <c r="AV150" s="2"/>
     </row>
-    <row r="151" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8322,7 +8321,7 @@
       <c r="AU151" s="2"/>
       <c r="AV151" s="2"/>
     </row>
-    <row r="152" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8372,7 +8371,7 @@
       <c r="AU152" s="2"/>
       <c r="AV152" s="2"/>
     </row>
-    <row r="153" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8422,7 +8421,7 @@
       <c r="AU153" s="2"/>
       <c r="AV153" s="2"/>
     </row>
-    <row r="154" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8472,7 +8471,7 @@
       <c r="AU154" s="2"/>
       <c r="AV154" s="2"/>
     </row>
-    <row r="155" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8522,7 +8521,7 @@
       <c r="AU155" s="2"/>
       <c r="AV155" s="2"/>
     </row>
-    <row r="156" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8572,7 +8571,7 @@
       <c r="AU156" s="2"/>
       <c r="AV156" s="2"/>
     </row>
-    <row r="157" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8622,7 +8621,7 @@
       <c r="AU157" s="2"/>
       <c r="AV157" s="2"/>
     </row>
-    <row r="158" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8672,7 +8671,7 @@
       <c r="AU158" s="2"/>
       <c r="AV158" s="2"/>
     </row>
-    <row r="159" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8722,7 +8721,7 @@
       <c r="AU159" s="2"/>
       <c r="AV159" s="2"/>
     </row>
-    <row r="160" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8772,7 +8771,7 @@
       <c r="AU160" s="2"/>
       <c r="AV160" s="2"/>
     </row>
-    <row r="161" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8822,7 +8821,7 @@
       <c r="AU161" s="2"/>
       <c r="AV161" s="2"/>
     </row>
-    <row r="162" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8872,7 +8871,7 @@
       <c r="AU162" s="2"/>
       <c r="AV162" s="2"/>
     </row>
-    <row r="163" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -8922,7 +8921,7 @@
       <c r="AU163" s="2"/>
       <c r="AV163" s="2"/>
     </row>
-    <row r="164" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8972,7 +8971,7 @@
       <c r="AU164" s="2"/>
       <c r="AV164" s="2"/>
     </row>
-    <row r="165" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9022,7 +9021,7 @@
       <c r="AU165" s="2"/>
       <c r="AV165" s="2"/>
     </row>
-    <row r="166" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9072,7 +9071,7 @@
       <c r="AU166" s="2"/>
       <c r="AV166" s="2"/>
     </row>
-    <row r="167" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9122,7 +9121,7 @@
       <c r="AU167" s="2"/>
       <c r="AV167" s="2"/>
     </row>
-    <row r="168" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9172,7 +9171,7 @@
       <c r="AU168" s="2"/>
       <c r="AV168" s="2"/>
     </row>
-    <row r="169" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9222,7 +9221,7 @@
       <c r="AU169" s="2"/>
       <c r="AV169" s="2"/>
     </row>
-    <row r="170" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9272,7 +9271,7 @@
       <c r="AU170" s="2"/>
       <c r="AV170" s="2"/>
     </row>
-    <row r="171" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9322,7 +9321,7 @@
       <c r="AU171" s="2"/>
       <c r="AV171" s="2"/>
     </row>
-    <row r="172" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9372,7 +9371,7 @@
       <c r="AU172" s="2"/>
       <c r="AV172" s="2"/>
     </row>
-    <row r="173" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9422,7 +9421,7 @@
       <c r="AU173" s="2"/>
       <c r="AV173" s="2"/>
     </row>
-    <row r="174" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9472,7 +9471,7 @@
       <c r="AU174" s="2"/>
       <c r="AV174" s="2"/>
     </row>
-    <row r="175" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9522,7 +9521,7 @@
       <c r="AU175" s="2"/>
       <c r="AV175" s="2"/>
     </row>
-    <row r="176" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9572,7 +9571,7 @@
       <c r="AU176" s="2"/>
       <c r="AV176" s="2"/>
     </row>
-    <row r="177" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9622,7 +9621,7 @@
       <c r="AU177" s="2"/>
       <c r="AV177" s="2"/>
     </row>
-    <row r="178" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9672,7 +9671,7 @@
       <c r="AU178" s="2"/>
       <c r="AV178" s="2"/>
     </row>
-    <row r="179" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9722,7 +9721,7 @@
       <c r="AU179" s="2"/>
       <c r="AV179" s="2"/>
     </row>
-    <row r="180" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9772,7 +9771,7 @@
       <c r="AU180" s="2"/>
       <c r="AV180" s="2"/>
     </row>
-    <row r="181" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9822,7 +9821,7 @@
       <c r="AU181" s="2"/>
       <c r="AV181" s="2"/>
     </row>
-    <row r="182" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9872,7 +9871,7 @@
       <c r="AU182" s="2"/>
       <c r="AV182" s="2"/>
     </row>
-    <row r="183" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9922,7 +9921,7 @@
       <c r="AU183" s="2"/>
       <c r="AV183" s="2"/>
     </row>
-    <row r="184" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9972,7 +9971,7 @@
       <c r="AU184" s="2"/>
       <c r="AV184" s="2"/>
     </row>
-    <row r="185" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -10022,7 +10021,7 @@
       <c r="AU185" s="2"/>
       <c r="AV185" s="2"/>
     </row>
-    <row r="186" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10072,7 +10071,7 @@
       <c r="AU186" s="2"/>
       <c r="AV186" s="2"/>
     </row>
-    <row r="187" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10122,7 +10121,7 @@
       <c r="AU187" s="2"/>
       <c r="AV187" s="2"/>
     </row>
-    <row r="188" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10172,7 +10171,7 @@
       <c r="AU188" s="2"/>
       <c r="AV188" s="2"/>
     </row>
-    <row r="189" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10222,7 +10221,7 @@
       <c r="AU189" s="2"/>
       <c r="AV189" s="2"/>
     </row>
-    <row r="190" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10272,7 +10271,7 @@
       <c r="AU190" s="2"/>
       <c r="AV190" s="2"/>
     </row>
-    <row r="191" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10322,7 +10321,7 @@
       <c r="AU191" s="2"/>
       <c r="AV191" s="2"/>
     </row>
-    <row r="192" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10372,7 +10371,7 @@
       <c r="AU192" s="2"/>
       <c r="AV192" s="2"/>
     </row>
-    <row r="193" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10422,7 +10421,7 @@
       <c r="AU193" s="2"/>
       <c r="AV193" s="2"/>
     </row>
-    <row r="194" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10472,7 +10471,7 @@
       <c r="AU194" s="2"/>
       <c r="AV194" s="2"/>
     </row>
-    <row r="195" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10522,7 +10521,7 @@
       <c r="AU195" s="2"/>
       <c r="AV195" s="2"/>
     </row>
-    <row r="196" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10572,7 +10571,7 @@
       <c r="AU196" s="2"/>
       <c r="AV196" s="2"/>
     </row>
-    <row r="197" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10622,7 +10621,7 @@
       <c r="AU197" s="2"/>
       <c r="AV197" s="2"/>
     </row>
-    <row r="198" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10672,7 +10671,7 @@
       <c r="AU198" s="2"/>
       <c r="AV198" s="2"/>
     </row>
-    <row r="199" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10722,7 +10721,7 @@
       <c r="AU199" s="2"/>
       <c r="AV199" s="2"/>
     </row>
-    <row r="200" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10772,7 +10771,7 @@
       <c r="AU200" s="2"/>
       <c r="AV200" s="2"/>
     </row>
-    <row r="201" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10822,7 +10821,7 @@
       <c r="AU201" s="2"/>
       <c r="AV201" s="2"/>
     </row>
-    <row r="202" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10872,7 +10871,7 @@
       <c r="AU202" s="2"/>
       <c r="AV202" s="2"/>
     </row>
-    <row r="203" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10922,7 +10921,7 @@
       <c r="AU203" s="2"/>
       <c r="AV203" s="2"/>
     </row>
-    <row r="204" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10972,7 +10971,7 @@
       <c r="AU204" s="2"/>
       <c r="AV204" s="2"/>
     </row>
-    <row r="205" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11022,7 +11021,7 @@
       <c r="AU205" s="2"/>
       <c r="AV205" s="2"/>
     </row>
-    <row r="206" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11072,7 +11071,7 @@
       <c r="AU206" s="2"/>
       <c r="AV206" s="2"/>
     </row>
-    <row r="207" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11122,7 +11121,7 @@
       <c r="AU207" s="2"/>
       <c r="AV207" s="2"/>
     </row>
-    <row r="208" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11172,7 +11171,7 @@
       <c r="AU208" s="2"/>
       <c r="AV208" s="2"/>
     </row>
-    <row r="209" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11222,7 +11221,7 @@
       <c r="AU209" s="2"/>
       <c r="AV209" s="2"/>
     </row>
-    <row r="210" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11272,7 +11271,7 @@
       <c r="AU210" s="2"/>
       <c r="AV210" s="2"/>
     </row>
-    <row r="211" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11322,7 +11321,7 @@
       <c r="AU211" s="2"/>
       <c r="AV211" s="2"/>
     </row>
-    <row r="212" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -11372,7 +11371,7 @@
       <c r="AU212" s="2"/>
       <c r="AV212" s="2"/>
     </row>
-    <row r="213" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11422,7 +11421,7 @@
       <c r="AU213" s="2"/>
       <c r="AV213" s="2"/>
     </row>
-    <row r="214" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11472,7 +11471,7 @@
       <c r="AU214" s="2"/>
       <c r="AV214" s="2"/>
     </row>
-    <row r="215" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11522,7 +11521,7 @@
       <c r="AU215" s="2"/>
       <c r="AV215" s="2"/>
     </row>
-    <row r="216" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -11572,7 +11571,7 @@
       <c r="AU216" s="2"/>
       <c r="AV216" s="2"/>
     </row>
-    <row r="217" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -11622,7 +11621,7 @@
       <c r="AU217" s="2"/>
       <c r="AV217" s="2"/>
     </row>
-    <row r="218" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11672,7 +11671,7 @@
       <c r="AU218" s="2"/>
       <c r="AV218" s="2"/>
     </row>
-    <row r="219" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11722,7 +11721,7 @@
       <c r="AU219" s="2"/>
       <c r="AV219" s="2"/>
     </row>
-    <row r="220" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -11772,7 +11771,7 @@
       <c r="AU220" s="2"/>
       <c r="AV220" s="2"/>
     </row>
-    <row r="221" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -11822,7 +11821,7 @@
       <c r="AU221" s="2"/>
       <c r="AV221" s="2"/>
     </row>
-    <row r="222" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -11872,7 +11871,7 @@
       <c r="AU222" s="2"/>
       <c r="AV222" s="2"/>
     </row>
-    <row r="223" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -11922,7 +11921,7 @@
       <c r="AU223" s="2"/>
       <c r="AV223" s="2"/>
     </row>
-    <row r="224" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -11972,7 +11971,7 @@
       <c r="AU224" s="2"/>
       <c r="AV224" s="2"/>
     </row>
-    <row r="225" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12022,7 +12021,7 @@
       <c r="AU225" s="2"/>
       <c r="AV225" s="2"/>
     </row>
-    <row r="226" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12072,7 +12071,7 @@
       <c r="AU226" s="2"/>
       <c r="AV226" s="2"/>
     </row>
-    <row r="227" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -12122,7 +12121,7 @@
       <c r="AU227" s="2"/>
       <c r="AV227" s="2"/>
     </row>
-    <row r="228" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -12172,7 +12171,7 @@
       <c r="AU228" s="2"/>
       <c r="AV228" s="2"/>
     </row>
-    <row r="229" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12222,7 +12221,7 @@
       <c r="AU229" s="2"/>
       <c r="AV229" s="2"/>
     </row>
-    <row r="230" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12272,7 +12271,7 @@
       <c r="AU230" s="2"/>
       <c r="AV230" s="2"/>
     </row>
-    <row r="231" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12322,7 +12321,7 @@
       <c r="AU231" s="2"/>
       <c r="AV231" s="2"/>
     </row>
-    <row r="232" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12372,7 +12371,7 @@
       <c r="AU232" s="2"/>
       <c r="AV232" s="2"/>
     </row>
-    <row r="233" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12422,7 +12421,7 @@
       <c r="AU233" s="2"/>
       <c r="AV233" s="2"/>
     </row>
-    <row r="234" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12472,7 +12471,7 @@
       <c r="AU234" s="2"/>
       <c r="AV234" s="2"/>
     </row>
-    <row r="235" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -12522,7 +12521,7 @@
       <c r="AU235" s="2"/>
       <c r="AV235" s="2"/>
     </row>
-    <row r="236" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -12572,7 +12571,7 @@
       <c r="AU236" s="2"/>
       <c r="AV236" s="2"/>
     </row>
-    <row r="237" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -12622,7 +12621,7 @@
       <c r="AU237" s="2"/>
       <c r="AV237" s="2"/>
     </row>
-    <row r="238" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -12672,7 +12671,7 @@
       <c r="AU238" s="2"/>
       <c r="AV238" s="2"/>
     </row>
-    <row r="239" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12722,7 +12721,7 @@
       <c r="AU239" s="2"/>
       <c r="AV239" s="2"/>
     </row>
-    <row r="240" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -12772,7 +12771,7 @@
       <c r="AU240" s="2"/>
       <c r="AV240" s="2"/>
     </row>
-    <row r="241" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -12822,7 +12821,7 @@
       <c r="AU241" s="2"/>
       <c r="AV241" s="2"/>
     </row>
-    <row r="242" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -12872,7 +12871,7 @@
       <c r="AU242" s="2"/>
       <c r="AV242" s="2"/>
     </row>
-    <row r="243" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -12922,7 +12921,7 @@
       <c r="AU243" s="2"/>
       <c r="AV243" s="2"/>
     </row>
-    <row r="244" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -12972,7 +12971,7 @@
       <c r="AU244" s="2"/>
       <c r="AV244" s="2"/>
     </row>
-    <row r="245" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -13022,7 +13021,7 @@
       <c r="AU245" s="2"/>
       <c r="AV245" s="2"/>
     </row>
-    <row r="246" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13072,7 +13071,7 @@
       <c r="AU246" s="2"/>
       <c r="AV246" s="2"/>
     </row>
-    <row r="247" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13122,7 +13121,7 @@
       <c r="AU247" s="2"/>
       <c r="AV247" s="2"/>
     </row>
-    <row r="248" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13172,7 +13171,7 @@
       <c r="AU248" s="2"/>
       <c r="AV248" s="2"/>
     </row>
-    <row r="249" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -13222,7 +13221,7 @@
       <c r="AU249" s="2"/>
       <c r="AV249" s="2"/>
     </row>
-    <row r="250" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -13272,7 +13271,7 @@
       <c r="AU250" s="2"/>
       <c r="AV250" s="2"/>
     </row>
-    <row r="251" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13322,7 +13321,7 @@
       <c r="AU251" s="2"/>
       <c r="AV251" s="2"/>
     </row>
-    <row r="252" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13372,7 +13371,7 @@
       <c r="AU252" s="2"/>
       <c r="AV252" s="2"/>
     </row>
-    <row r="253" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13422,7 +13421,7 @@
       <c r="AU253" s="2"/>
       <c r="AV253" s="2"/>
     </row>
-    <row r="254" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -13472,7 +13471,7 @@
       <c r="AU254" s="2"/>
       <c r="AV254" s="2"/>
     </row>
-    <row r="255" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -13522,7 +13521,7 @@
       <c r="AU255" s="2"/>
       <c r="AV255" s="2"/>
     </row>
-    <row r="256" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -13572,7 +13571,7 @@
       <c r="AU256" s="2"/>
       <c r="AV256" s="2"/>
     </row>
-    <row r="257" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -13622,7 +13621,7 @@
       <c r="AU257" s="2"/>
       <c r="AV257" s="2"/>
     </row>
-    <row r="258" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -13672,7 +13671,7 @@
       <c r="AU258" s="2"/>
       <c r="AV258" s="2"/>
     </row>
-    <row r="259" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -13722,7 +13721,7 @@
       <c r="AU259" s="2"/>
       <c r="AV259" s="2"/>
     </row>
-    <row r="260" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -13772,7 +13771,7 @@
       <c r="AU260" s="2"/>
       <c r="AV260" s="2"/>
     </row>
-    <row r="261" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -13822,7 +13821,7 @@
       <c r="AU261" s="2"/>
       <c r="AV261" s="2"/>
     </row>
-    <row r="262" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -13872,7 +13871,7 @@
       <c r="AU262" s="2"/>
       <c r="AV262" s="2"/>
     </row>
-    <row r="263" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -13922,7 +13921,7 @@
       <c r="AU263" s="2"/>
       <c r="AV263" s="2"/>
     </row>
-    <row r="264" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -13972,7 +13971,7 @@
       <c r="AU264" s="2"/>
       <c r="AV264" s="2"/>
     </row>
-    <row r="265" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -14022,7 +14021,7 @@
       <c r="AU265" s="2"/>
       <c r="AV265" s="2"/>
     </row>
-    <row r="266" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -14072,7 +14071,7 @@
       <c r="AU266" s="2"/>
       <c r="AV266" s="2"/>
     </row>
-    <row r="267" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -14122,7 +14121,7 @@
       <c r="AU267" s="2"/>
       <c r="AV267" s="2"/>
     </row>
-    <row r="268" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -14172,7 +14171,7 @@
       <c r="AU268" s="2"/>
       <c r="AV268" s="2"/>
     </row>
-    <row r="269" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -14222,7 +14221,7 @@
       <c r="AU269" s="2"/>
       <c r="AV269" s="2"/>
     </row>
-    <row r="270" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -14272,7 +14271,7 @@
       <c r="AU270" s="2"/>
       <c r="AV270" s="2"/>
     </row>
-    <row r="271" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -14322,7 +14321,7 @@
       <c r="AU271" s="2"/>
       <c r="AV271" s="2"/>
     </row>
-    <row r="272" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -14372,7 +14371,7 @@
       <c r="AU272" s="2"/>
       <c r="AV272" s="2"/>
     </row>
-    <row r="273" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -14422,7 +14421,7 @@
       <c r="AU273" s="2"/>
       <c r="AV273" s="2"/>
     </row>
-    <row r="274" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -14472,7 +14471,7 @@
       <c r="AU274" s="2"/>
       <c r="AV274" s="2"/>
     </row>
-    <row r="275" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -14522,7 +14521,7 @@
       <c r="AU275" s="2"/>
       <c r="AV275" s="2"/>
     </row>
-    <row r="276" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -14572,7 +14571,7 @@
       <c r="AU276" s="2"/>
       <c r="AV276" s="2"/>
     </row>
-    <row r="277" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -14622,7 +14621,7 @@
       <c r="AU277" s="2"/>
       <c r="AV277" s="2"/>
     </row>
-    <row r="278" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -14672,7 +14671,7 @@
       <c r="AU278" s="2"/>
       <c r="AV278" s="2"/>
     </row>
-    <row r="279" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -14722,7 +14721,7 @@
       <c r="AU279" s="2"/>
       <c r="AV279" s="2"/>
     </row>
-    <row r="280" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -14772,7 +14771,7 @@
       <c r="AU280" s="2"/>
       <c r="AV280" s="2"/>
     </row>
-    <row r="281" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -14822,7 +14821,7 @@
       <c r="AU281" s="2"/>
       <c r="AV281" s="2"/>
     </row>
-    <row r="282" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -14872,7 +14871,7 @@
       <c r="AU282" s="2"/>
       <c r="AV282" s="2"/>
     </row>
-    <row r="283" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -14922,7 +14921,7 @@
       <c r="AU283" s="2"/>
       <c r="AV283" s="2"/>
     </row>
-    <row r="284" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -14972,7 +14971,7 @@
       <c r="AU284" s="2"/>
       <c r="AV284" s="2"/>
     </row>
-    <row r="285" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -15022,7 +15021,7 @@
       <c r="AU285" s="2"/>
       <c r="AV285" s="2"/>
     </row>
-    <row r="286" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -15072,7 +15071,7 @@
       <c r="AU286" s="2"/>
       <c r="AV286" s="2"/>
     </row>
-    <row r="287" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -15122,7 +15121,7 @@
       <c r="AU287" s="2"/>
       <c r="AV287" s="2"/>
     </row>
-    <row r="288" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -15172,7 +15171,7 @@
       <c r="AU288" s="2"/>
       <c r="AV288" s="2"/>
     </row>
-    <row r="289" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -15222,7 +15221,7 @@
       <c r="AU289" s="2"/>
       <c r="AV289" s="2"/>
     </row>
-    <row r="290" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -15272,7 +15271,7 @@
       <c r="AU290" s="2"/>
       <c r="AV290" s="2"/>
     </row>
-    <row r="291" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -15322,7 +15321,7 @@
       <c r="AU291" s="2"/>
       <c r="AV291" s="2"/>
     </row>
-    <row r="292" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -15372,7 +15371,7 @@
       <c r="AU292" s="2"/>
       <c r="AV292" s="2"/>
     </row>
-    <row r="293" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -15422,7 +15421,7 @@
       <c r="AU293" s="2"/>
       <c r="AV293" s="2"/>
     </row>
-    <row r="294" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -15472,7 +15471,7 @@
       <c r="AU294" s="2"/>
       <c r="AV294" s="2"/>
     </row>
-    <row r="295" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -15522,7 +15521,7 @@
       <c r="AU295" s="2"/>
       <c r="AV295" s="2"/>
     </row>
-    <row r="296" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -15572,7 +15571,7 @@
       <c r="AU296" s="2"/>
       <c r="AV296" s="2"/>
     </row>
-    <row r="297" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -15622,7 +15621,7 @@
       <c r="AU297" s="2"/>
       <c r="AV297" s="2"/>
     </row>
-    <row r="298" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -15672,7 +15671,7 @@
       <c r="AU298" s="2"/>
       <c r="AV298" s="2"/>
     </row>
-    <row r="299" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -15722,7 +15721,7 @@
       <c r="AU299" s="2"/>
       <c r="AV299" s="2"/>
     </row>
-    <row r="300" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -15772,7 +15771,7 @@
       <c r="AU300" s="2"/>
       <c r="AV300" s="2"/>
     </row>
-    <row r="301" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -15822,7 +15821,7 @@
       <c r="AU301" s="2"/>
       <c r="AV301" s="2"/>
     </row>
-    <row r="302" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -15872,7 +15871,7 @@
       <c r="AU302" s="2"/>
       <c r="AV302" s="2"/>
     </row>
-    <row r="303" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -15922,7 +15921,7 @@
       <c r="AU303" s="2"/>
       <c r="AV303" s="2"/>
     </row>
-    <row r="304" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -15972,7 +15971,7 @@
       <c r="AU304" s="2"/>
       <c r="AV304" s="2"/>
     </row>
-    <row r="305" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -16022,7 +16021,7 @@
       <c r="AU305" s="2"/>
       <c r="AV305" s="2"/>
     </row>
-    <row r="306" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -16072,7 +16071,7 @@
       <c r="AU306" s="2"/>
       <c r="AV306" s="2"/>
     </row>
-    <row r="307" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -16122,7 +16121,7 @@
       <c r="AU307" s="2"/>
       <c r="AV307" s="2"/>
     </row>
-    <row r="308" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -16172,7 +16171,7 @@
       <c r="AU308" s="2"/>
       <c r="AV308" s="2"/>
     </row>
-    <row r="309" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -16222,7 +16221,7 @@
       <c r="AU309" s="2"/>
       <c r="AV309" s="2"/>
     </row>
-    <row r="310" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -16272,7 +16271,7 @@
       <c r="AU310" s="2"/>
       <c r="AV310" s="2"/>
     </row>
-    <row r="311" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -16322,7 +16321,7 @@
       <c r="AU311" s="2"/>
       <c r="AV311" s="2"/>
     </row>
-    <row r="312" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -16372,7 +16371,7 @@
       <c r="AU312" s="2"/>
       <c r="AV312" s="2"/>
     </row>
-    <row r="313" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -16422,7 +16421,7 @@
       <c r="AU313" s="2"/>
       <c r="AV313" s="2"/>
     </row>
-    <row r="314" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -16472,7 +16471,7 @@
       <c r="AU314" s="2"/>
       <c r="AV314" s="2"/>
     </row>
-    <row r="315" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -16522,7 +16521,7 @@
       <c r="AU315" s="2"/>
       <c r="AV315" s="2"/>
     </row>
-    <row r="316" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -16572,7 +16571,7 @@
       <c r="AU316" s="2"/>
       <c r="AV316" s="2"/>
     </row>
-    <row r="317" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -16622,7 +16621,7 @@
       <c r="AU317" s="2"/>
       <c r="AV317" s="2"/>
     </row>
-    <row r="318" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -16672,7 +16671,7 @@
       <c r="AU318" s="2"/>
       <c r="AV318" s="2"/>
     </row>
-    <row r="319" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -16722,7 +16721,7 @@
       <c r="AU319" s="2"/>
       <c r="AV319" s="2"/>
     </row>
-    <row r="320" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -16772,7 +16771,7 @@
       <c r="AU320" s="2"/>
       <c r="AV320" s="2"/>
     </row>
-    <row r="321" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -16822,7 +16821,7 @@
       <c r="AU321" s="2"/>
       <c r="AV321" s="2"/>
     </row>
-    <row r="322" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -16872,7 +16871,7 @@
       <c r="AU322" s="2"/>
       <c r="AV322" s="2"/>
     </row>
-    <row r="323" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -16922,7 +16921,7 @@
       <c r="AU323" s="2"/>
       <c r="AV323" s="2"/>
     </row>
-    <row r="324" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -16972,7 +16971,7 @@
       <c r="AU324" s="2"/>
       <c r="AV324" s="2"/>
     </row>
-    <row r="325" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -17022,7 +17021,7 @@
       <c r="AU325" s="2"/>
       <c r="AV325" s="2"/>
     </row>
-    <row r="326" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -17072,7 +17071,7 @@
       <c r="AU326" s="2"/>
       <c r="AV326" s="2"/>
     </row>
-    <row r="327" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -17122,7 +17121,7 @@
       <c r="AU327" s="2"/>
       <c r="AV327" s="2"/>
     </row>
-    <row r="328" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -17172,7 +17171,7 @@
       <c r="AU328" s="2"/>
       <c r="AV328" s="2"/>
     </row>
-    <row r="329" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -17222,7 +17221,7 @@
       <c r="AU329" s="2"/>
       <c r="AV329" s="2"/>
     </row>
-    <row r="330" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -17272,7 +17271,7 @@
       <c r="AU330" s="2"/>
       <c r="AV330" s="2"/>
     </row>
-    <row r="331" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -17322,7 +17321,7 @@
       <c r="AU331" s="2"/>
       <c r="AV331" s="2"/>
     </row>
-    <row r="332" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -17372,7 +17371,7 @@
       <c r="AU332" s="2"/>
       <c r="AV332" s="2"/>
     </row>
-    <row r="333" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -17422,7 +17421,7 @@
       <c r="AU333" s="2"/>
       <c r="AV333" s="2"/>
     </row>
-    <row r="334" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -17472,7 +17471,7 @@
       <c r="AU334" s="2"/>
       <c r="AV334" s="2"/>
     </row>
-    <row r="335" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -17522,7 +17521,7 @@
       <c r="AU335" s="2"/>
       <c r="AV335" s="2"/>
     </row>
-    <row r="336" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -17572,7 +17571,7 @@
       <c r="AU336" s="2"/>
       <c r="AV336" s="2"/>
     </row>
-    <row r="337" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -17622,7 +17621,7 @@
       <c r="AU337" s="2"/>
       <c r="AV337" s="2"/>
     </row>
-    <row r="338" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -17672,7 +17671,7 @@
       <c r="AU338" s="2"/>
       <c r="AV338" s="2"/>
     </row>
-    <row r="339" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -17722,7 +17721,7 @@
       <c r="AU339" s="2"/>
       <c r="AV339" s="2"/>
     </row>
-    <row r="340" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -17772,7 +17771,7 @@
       <c r="AU340" s="2"/>
       <c r="AV340" s="2"/>
     </row>
-    <row r="341" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -17822,7 +17821,7 @@
       <c r="AU341" s="2"/>
       <c r="AV341" s="2"/>
     </row>
-    <row r="342" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -17872,7 +17871,7 @@
       <c r="AU342" s="2"/>
       <c r="AV342" s="2"/>
     </row>
-    <row r="343" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -17922,7 +17921,7 @@
       <c r="AU343" s="2"/>
       <c r="AV343" s="2"/>
     </row>
-    <row r="344" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -17972,7 +17971,7 @@
       <c r="AU344" s="2"/>
       <c r="AV344" s="2"/>
     </row>
-    <row r="345" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -18022,7 +18021,7 @@
       <c r="AU345" s="2"/>
       <c r="AV345" s="2"/>
     </row>
-    <row r="346" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -18072,7 +18071,7 @@
       <c r="AU346" s="2"/>
       <c r="AV346" s="2"/>
     </row>
-    <row r="347" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -18122,7 +18121,7 @@
       <c r="AU347" s="2"/>
       <c r="AV347" s="2"/>
     </row>
-    <row r="348" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -18172,7 +18171,7 @@
       <c r="AU348" s="2"/>
       <c r="AV348" s="2"/>
     </row>
-    <row r="349" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -18222,7 +18221,7 @@
       <c r="AU349" s="2"/>
       <c r="AV349" s="2"/>
     </row>
-    <row r="350" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -18272,7 +18271,7 @@
       <c r="AU350" s="2"/>
       <c r="AV350" s="2"/>
     </row>
-    <row r="351" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -18322,7 +18321,7 @@
       <c r="AU351" s="2"/>
       <c r="AV351" s="2"/>
     </row>
-    <row r="352" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -18372,7 +18371,7 @@
       <c r="AU352" s="2"/>
       <c r="AV352" s="2"/>
     </row>
-    <row r="353" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -18422,7 +18421,7 @@
       <c r="AU353" s="2"/>
       <c r="AV353" s="2"/>
     </row>
-    <row r="354" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -18472,7 +18471,7 @@
       <c r="AU354" s="2"/>
       <c r="AV354" s="2"/>
     </row>
-    <row r="355" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -18522,7 +18521,7 @@
       <c r="AU355" s="2"/>
       <c r="AV355" s="2"/>
     </row>
-    <row r="356" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -18572,7 +18571,7 @@
       <c r="AU356" s="2"/>
       <c r="AV356" s="2"/>
     </row>
-    <row r="357" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -18622,7 +18621,7 @@
       <c r="AU357" s="2"/>
       <c r="AV357" s="2"/>
     </row>
-    <row r="358" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -18672,7 +18671,7 @@
       <c r="AU358" s="2"/>
       <c r="AV358" s="2"/>
     </row>
-    <row r="359" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -18722,7 +18721,7 @@
       <c r="AU359" s="2"/>
       <c r="AV359" s="2"/>
     </row>
-    <row r="360" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -18772,7 +18771,7 @@
       <c r="AU360" s="2"/>
       <c r="AV360" s="2"/>
     </row>
-    <row r="361" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -18822,7 +18821,7 @@
       <c r="AU361" s="2"/>
       <c r="AV361" s="2"/>
     </row>
-    <row r="362" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -18872,7 +18871,7 @@
       <c r="AU362" s="2"/>
       <c r="AV362" s="2"/>
     </row>
-    <row r="363" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -18922,7 +18921,7 @@
       <c r="AU363" s="2"/>
       <c r="AV363" s="2"/>
     </row>
-    <row r="364" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -18972,7 +18971,7 @@
       <c r="AU364" s="2"/>
       <c r="AV364" s="2"/>
     </row>
-    <row r="365" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -19022,7 +19021,7 @@
       <c r="AU365" s="2"/>
       <c r="AV365" s="2"/>
     </row>
-    <row r="366" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -19072,7 +19071,7 @@
       <c r="AU366" s="2"/>
       <c r="AV366" s="2"/>
     </row>
-    <row r="367" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -19122,7 +19121,7 @@
       <c r="AU367" s="2"/>
       <c r="AV367" s="2"/>
     </row>
-    <row r="368" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -19172,7 +19171,7 @@
       <c r="AU368" s="2"/>
       <c r="AV368" s="2"/>
     </row>
-    <row r="369" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -19222,7 +19221,7 @@
       <c r="AU369" s="2"/>
       <c r="AV369" s="2"/>
     </row>
-    <row r="370" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -19272,7 +19271,7 @@
       <c r="AU370" s="2"/>
       <c r="AV370" s="2"/>
     </row>
-    <row r="371" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -19322,7 +19321,7 @@
       <c r="AU371" s="2"/>
       <c r="AV371" s="2"/>
     </row>
-    <row r="372" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -19372,7 +19371,7 @@
       <c r="AU372" s="2"/>
       <c r="AV372" s="2"/>
     </row>
-    <row r="373" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -19422,7 +19421,7 @@
       <c r="AU373" s="2"/>
       <c r="AV373" s="2"/>
     </row>
-    <row r="374" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -19472,7 +19471,7 @@
       <c r="AU374" s="2"/>
       <c r="AV374" s="2"/>
     </row>
-    <row r="375" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -19522,7 +19521,7 @@
       <c r="AU375" s="2"/>
       <c r="AV375" s="2"/>
     </row>
-    <row r="376" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -19572,7 +19571,7 @@
       <c r="AU376" s="2"/>
       <c r="AV376" s="2"/>
     </row>
-    <row r="377" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -19622,7 +19621,7 @@
       <c r="AU377" s="2"/>
       <c r="AV377" s="2"/>
     </row>
-    <row r="378" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -19672,7 +19671,7 @@
       <c r="AU378" s="2"/>
       <c r="AV378" s="2"/>
     </row>
-    <row r="379" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -19722,7 +19721,7 @@
       <c r="AU379" s="2"/>
       <c r="AV379" s="2"/>
     </row>
-    <row r="380" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -19772,7 +19771,7 @@
       <c r="AU380" s="2"/>
       <c r="AV380" s="2"/>
     </row>
-    <row r="381" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -19822,7 +19821,7 @@
       <c r="AU381" s="2"/>
       <c r="AV381" s="2"/>
     </row>
-    <row r="382" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -19872,7 +19871,7 @@
       <c r="AU382" s="2"/>
       <c r="AV382" s="2"/>
     </row>
-    <row r="383" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -19922,7 +19921,7 @@
       <c r="AU383" s="2"/>
       <c r="AV383" s="2"/>
     </row>
-    <row r="384" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -19972,7 +19971,7 @@
       <c r="AU384" s="2"/>
       <c r="AV384" s="2"/>
     </row>
-    <row r="385" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -20022,7 +20021,7 @@
       <c r="AU385" s="2"/>
       <c r="AV385" s="2"/>
     </row>
-    <row r="386" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -20072,7 +20071,7 @@
       <c r="AU386" s="2"/>
       <c r="AV386" s="2"/>
     </row>
-    <row r="387" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -20122,7 +20121,7 @@
       <c r="AU387" s="2"/>
       <c r="AV387" s="2"/>
     </row>
-    <row r="388" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -20172,7 +20171,7 @@
       <c r="AU388" s="2"/>
       <c r="AV388" s="2"/>
     </row>
-    <row r="389" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -20222,7 +20221,7 @@
       <c r="AU389" s="2"/>
       <c r="AV389" s="2"/>
     </row>
-    <row r="390" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -20272,7 +20271,7 @@
       <c r="AU390" s="2"/>
       <c r="AV390" s="2"/>
     </row>
-    <row r="391" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -20322,7 +20321,7 @@
       <c r="AU391" s="2"/>
       <c r="AV391" s="2"/>
     </row>
-    <row r="392" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -20372,7 +20371,7 @@
       <c r="AU392" s="2"/>
       <c r="AV392" s="2"/>
     </row>
-    <row r="393" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -20422,7 +20421,7 @@
       <c r="AU393" s="2"/>
       <c r="AV393" s="2"/>
     </row>
-    <row r="394" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -20472,7 +20471,7 @@
       <c r="AU394" s="2"/>
       <c r="AV394" s="2"/>
     </row>
-    <row r="395" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -20522,7 +20521,7 @@
       <c r="AU395" s="2"/>
       <c r="AV395" s="2"/>
     </row>
-    <row r="396" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -20572,7 +20571,7 @@
       <c r="AU396" s="2"/>
       <c r="AV396" s="2"/>
     </row>
-    <row r="397" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -20622,7 +20621,7 @@
       <c r="AU397" s="2"/>
       <c r="AV397" s="2"/>
     </row>
-    <row r="398" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -20672,7 +20671,7 @@
       <c r="AU398" s="2"/>
       <c r="AV398" s="2"/>
     </row>
-    <row r="399" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -20722,7 +20721,7 @@
       <c r="AU399" s="2"/>
       <c r="AV399" s="2"/>
     </row>
-    <row r="400" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -20772,7 +20771,7 @@
       <c r="AU400" s="2"/>
       <c r="AV400" s="2"/>
     </row>
-    <row r="401" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -20822,7 +20821,7 @@
       <c r="AU401" s="2"/>
       <c r="AV401" s="2"/>
     </row>
-    <row r="402" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -20872,7 +20871,7 @@
       <c r="AU402" s="2"/>
       <c r="AV402" s="2"/>
     </row>
-    <row r="403" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -20922,7 +20921,7 @@
       <c r="AU403" s="2"/>
       <c r="AV403" s="2"/>
     </row>
-    <row r="404" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -20972,7 +20971,7 @@
       <c r="AU404" s="2"/>
       <c r="AV404" s="2"/>
     </row>
-    <row r="405" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -21022,7 +21021,7 @@
       <c r="AU405" s="2"/>
       <c r="AV405" s="2"/>
     </row>
-    <row r="406" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -21072,7 +21071,7 @@
       <c r="AU406" s="2"/>
       <c r="AV406" s="2"/>
     </row>
-    <row r="407" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -21122,7 +21121,7 @@
       <c r="AU407" s="2"/>
       <c r="AV407" s="2"/>
     </row>
-    <row r="408" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -21172,7 +21171,7 @@
       <c r="AU408" s="2"/>
       <c r="AV408" s="2"/>
     </row>
-    <row r="409" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -21222,7 +21221,7 @@
       <c r="AU409" s="2"/>
       <c r="AV409" s="2"/>
     </row>
-    <row r="410" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -21272,7 +21271,7 @@
       <c r="AU410" s="2"/>
       <c r="AV410" s="2"/>
     </row>
-    <row r="411" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -21322,7 +21321,7 @@
       <c r="AU411" s="2"/>
       <c r="AV411" s="2"/>
     </row>
-    <row r="412" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -21372,7 +21371,7 @@
       <c r="AU412" s="2"/>
       <c r="AV412" s="2"/>
     </row>
-    <row r="413" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -21422,7 +21421,7 @@
       <c r="AU413" s="2"/>
       <c r="AV413" s="2"/>
     </row>
-    <row r="414" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -21472,7 +21471,7 @@
       <c r="AU414" s="2"/>
       <c r="AV414" s="2"/>
     </row>
-    <row r="415" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -21522,7 +21521,7 @@
       <c r="AU415" s="2"/>
       <c r="AV415" s="2"/>
     </row>
-    <row r="416" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -21572,7 +21571,7 @@
       <c r="AU416" s="2"/>
       <c r="AV416" s="2"/>
     </row>
-    <row r="417" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -21622,7 +21621,7 @@
       <c r="AU417" s="2"/>
       <c r="AV417" s="2"/>
     </row>
-    <row r="418" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -21672,7 +21671,7 @@
       <c r="AU418" s="2"/>
       <c r="AV418" s="2"/>
     </row>
-    <row r="419" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -21722,7 +21721,7 @@
       <c r="AU419" s="2"/>
       <c r="AV419" s="2"/>
     </row>
-    <row r="420" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -21772,7 +21771,7 @@
       <c r="AU420" s="2"/>
       <c r="AV420" s="2"/>
     </row>
-    <row r="421" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -21822,7 +21821,7 @@
       <c r="AU421" s="2"/>
       <c r="AV421" s="2"/>
     </row>
-    <row r="422" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -21872,7 +21871,7 @@
       <c r="AU422" s="2"/>
       <c r="AV422" s="2"/>
     </row>
-    <row r="423" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -21922,7 +21921,7 @@
       <c r="AU423" s="2"/>
       <c r="AV423" s="2"/>
     </row>
-    <row r="424" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -21972,7 +21971,7 @@
       <c r="AU424" s="2"/>
       <c r="AV424" s="2"/>
     </row>
-    <row r="425" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -22022,7 +22021,7 @@
       <c r="AU425" s="2"/>
       <c r="AV425" s="2"/>
     </row>
-    <row r="426" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -22072,7 +22071,7 @@
       <c r="AU426" s="2"/>
       <c r="AV426" s="2"/>
     </row>
-    <row r="427" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -22122,7 +22121,7 @@
       <c r="AU427" s="2"/>
       <c r="AV427" s="2"/>
     </row>
-    <row r="428" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -22172,7 +22171,7 @@
       <c r="AU428" s="2"/>
       <c r="AV428" s="2"/>
     </row>
-    <row r="429" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -22222,7 +22221,7 @@
       <c r="AU429" s="2"/>
       <c r="AV429" s="2"/>
     </row>
-    <row r="430" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -22272,7 +22271,7 @@
       <c r="AU430" s="2"/>
       <c r="AV430" s="2"/>
     </row>
-    <row r="431" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -22322,7 +22321,7 @@
       <c r="AU431" s="2"/>
       <c r="AV431" s="2"/>
     </row>
-    <row r="432" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -22372,7 +22371,7 @@
       <c r="AU432" s="2"/>
       <c r="AV432" s="2"/>
     </row>
-    <row r="433" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -22422,7 +22421,7 @@
       <c r="AU433" s="2"/>
       <c r="AV433" s="2"/>
     </row>
-    <row r="434" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -22472,7 +22471,7 @@
       <c r="AU434" s="2"/>
       <c r="AV434" s="2"/>
     </row>
-    <row r="435" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -22522,7 +22521,7 @@
       <c r="AU435" s="2"/>
       <c r="AV435" s="2"/>
     </row>
-    <row r="436" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -22572,7 +22571,7 @@
       <c r="AU436" s="2"/>
       <c r="AV436" s="2"/>
     </row>
-    <row r="437" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -22622,7 +22621,7 @@
       <c r="AU437" s="2"/>
       <c r="AV437" s="2"/>
     </row>
-    <row r="438" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -22672,7 +22671,7 @@
       <c r="AU438" s="2"/>
       <c r="AV438" s="2"/>
     </row>
-    <row r="439" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -22722,7 +22721,7 @@
       <c r="AU439" s="2"/>
       <c r="AV439" s="2"/>
     </row>
-    <row r="440" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -22772,7 +22771,7 @@
       <c r="AU440" s="2"/>
       <c r="AV440" s="2"/>
     </row>
-    <row r="441" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -22822,7 +22821,7 @@
       <c r="AU441" s="2"/>
       <c r="AV441" s="2"/>
     </row>
-    <row r="442" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -22872,7 +22871,7 @@
       <c r="AU442" s="2"/>
       <c r="AV442" s="2"/>
     </row>
-    <row r="443" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -22922,7 +22921,7 @@
       <c r="AU443" s="2"/>
       <c r="AV443" s="2"/>
     </row>
-    <row r="444" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -22972,7 +22971,7 @@
       <c r="AU444" s="2"/>
       <c r="AV444" s="2"/>
     </row>
-    <row r="445" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -23022,7 +23021,7 @@
       <c r="AU445" s="2"/>
       <c r="AV445" s="2"/>
     </row>
-    <row r="446" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -23072,7 +23071,7 @@
       <c r="AU446" s="2"/>
       <c r="AV446" s="2"/>
     </row>
-    <row r="447" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -23122,7 +23121,7 @@
       <c r="AU447" s="2"/>
       <c r="AV447" s="2"/>
     </row>
-    <row r="448" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -23172,7 +23171,7 @@
       <c r="AU448" s="2"/>
       <c r="AV448" s="2"/>
     </row>
-    <row r="449" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -23222,7 +23221,7 @@
       <c r="AU449" s="2"/>
       <c r="AV449" s="2"/>
     </row>
-    <row r="450" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -23272,7 +23271,7 @@
       <c r="AU450" s="2"/>
       <c r="AV450" s="2"/>
     </row>
-    <row r="451" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -23322,7 +23321,7 @@
       <c r="AU451" s="2"/>
       <c r="AV451" s="2"/>
     </row>
-    <row r="452" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -23372,7 +23371,7 @@
       <c r="AU452" s="2"/>
       <c r="AV452" s="2"/>
     </row>
-    <row r="453" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -23422,7 +23421,7 @@
       <c r="AU453" s="2"/>
       <c r="AV453" s="2"/>
     </row>
-    <row r="454" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -23472,7 +23471,7 @@
       <c r="AU454" s="2"/>
       <c r="AV454" s="2"/>
     </row>
-    <row r="455" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -23522,7 +23521,7 @@
       <c r="AU455" s="2"/>
       <c r="AV455" s="2"/>
     </row>
-    <row r="456" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -23572,7 +23571,7 @@
       <c r="AU456" s="2"/>
       <c r="AV456" s="2"/>
     </row>
-    <row r="457" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -23622,7 +23621,7 @@
       <c r="AU457" s="2"/>
       <c r="AV457" s="2"/>
     </row>
-    <row r="458" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -23672,7 +23671,7 @@
       <c r="AU458" s="2"/>
       <c r="AV458" s="2"/>
     </row>
-    <row r="459" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -23722,7 +23721,7 @@
       <c r="AU459" s="2"/>
       <c r="AV459" s="2"/>
     </row>
-    <row r="460" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -23772,7 +23771,7 @@
       <c r="AU460" s="2"/>
       <c r="AV460" s="2"/>
     </row>
-    <row r="461" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -23822,7 +23821,7 @@
       <c r="AU461" s="2"/>
       <c r="AV461" s="2"/>
     </row>
-    <row r="462" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -23872,7 +23871,7 @@
       <c r="AU462" s="2"/>
       <c r="AV462" s="2"/>
     </row>
-    <row r="463" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -23922,7 +23921,7 @@
       <c r="AU463" s="2"/>
       <c r="AV463" s="2"/>
     </row>
-    <row r="464" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -23972,7 +23971,7 @@
       <c r="AU464" s="2"/>
       <c r="AV464" s="2"/>
     </row>
-    <row r="465" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -24022,7 +24021,7 @@
       <c r="AU465" s="2"/>
       <c r="AV465" s="2"/>
     </row>
-    <row r="466" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -24072,7 +24071,7 @@
       <c r="AU466" s="2"/>
       <c r="AV466" s="2"/>
     </row>
-    <row r="467" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -24122,7 +24121,7 @@
       <c r="AU467" s="2"/>
       <c r="AV467" s="2"/>
     </row>
-    <row r="468" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -24172,7 +24171,7 @@
       <c r="AU468" s="2"/>
       <c r="AV468" s="2"/>
     </row>
-    <row r="469" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -24222,7 +24221,7 @@
       <c r="AU469" s="2"/>
       <c r="AV469" s="2"/>
     </row>
-    <row r="470" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -24272,7 +24271,7 @@
       <c r="AU470" s="2"/>
       <c r="AV470" s="2"/>
     </row>
-    <row r="471" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -24322,7 +24321,7 @@
       <c r="AU471" s="2"/>
       <c r="AV471" s="2"/>
     </row>
-    <row r="472" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -24372,7 +24371,7 @@
       <c r="AU472" s="2"/>
       <c r="AV472" s="2"/>
     </row>
-    <row r="473" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -24422,7 +24421,7 @@
       <c r="AU473" s="2"/>
       <c r="AV473" s="2"/>
     </row>
-    <row r="474" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -24472,7 +24471,7 @@
       <c r="AU474" s="2"/>
       <c r="AV474" s="2"/>
     </row>
-    <row r="475" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -24522,7 +24521,7 @@
       <c r="AU475" s="2"/>
       <c r="AV475" s="2"/>
     </row>
-    <row r="476" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -24572,7 +24571,7 @@
       <c r="AU476" s="2"/>
       <c r="AV476" s="2"/>
     </row>
-    <row r="477" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -24622,7 +24621,7 @@
       <c r="AU477" s="2"/>
       <c r="AV477" s="2"/>
     </row>
-    <row r="478" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -24672,7 +24671,7 @@
       <c r="AU478" s="2"/>
       <c r="AV478" s="2"/>
     </row>
-    <row r="479" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -24722,7 +24721,7 @@
       <c r="AU479" s="2"/>
       <c r="AV479" s="2"/>
     </row>
-    <row r="480" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -24772,7 +24771,7 @@
       <c r="AU480" s="2"/>
       <c r="AV480" s="2"/>
     </row>
-    <row r="481" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -24822,7 +24821,7 @@
       <c r="AU481" s="2"/>
       <c r="AV481" s="2"/>
     </row>
-    <row r="482" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -24872,7 +24871,7 @@
       <c r="AU482" s="2"/>
       <c r="AV482" s="2"/>
     </row>
-    <row r="483" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -24922,7 +24921,7 @@
       <c r="AU483" s="2"/>
       <c r="AV483" s="2"/>
     </row>
-    <row r="484" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -24972,7 +24971,7 @@
       <c r="AU484" s="2"/>
       <c r="AV484" s="2"/>
     </row>
-    <row r="485" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -25022,7 +25021,7 @@
       <c r="AU485" s="2"/>
       <c r="AV485" s="2"/>
     </row>
-    <row r="486" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -25072,7 +25071,7 @@
       <c r="AU486" s="2"/>
       <c r="AV486" s="2"/>
     </row>
-    <row r="487" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -25122,7 +25121,7 @@
       <c r="AU487" s="2"/>
       <c r="AV487" s="2"/>
     </row>
-    <row r="488" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -25172,7 +25171,7 @@
       <c r="AU488" s="2"/>
       <c r="AV488" s="2"/>
     </row>
-    <row r="489" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -25222,7 +25221,7 @@
       <c r="AU489" s="2"/>
       <c r="AV489" s="2"/>
     </row>
-    <row r="490" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -25272,7 +25271,7 @@
       <c r="AU490" s="2"/>
       <c r="AV490" s="2"/>
     </row>
-    <row r="491" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -25322,7 +25321,7 @@
       <c r="AU491" s="2"/>
       <c r="AV491" s="2"/>
     </row>
-    <row r="492" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -25372,7 +25371,7 @@
       <c r="AU492" s="2"/>
       <c r="AV492" s="2"/>
     </row>
-    <row r="493" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -25422,7 +25421,7 @@
       <c r="AU493" s="2"/>
       <c r="AV493" s="2"/>
     </row>
-    <row r="494" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -25472,7 +25471,7 @@
       <c r="AU494" s="2"/>
       <c r="AV494" s="2"/>
     </row>
-    <row r="495" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -25522,7 +25521,7 @@
       <c r="AU495" s="2"/>
       <c r="AV495" s="2"/>
     </row>
-    <row r="496" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -25572,7 +25571,7 @@
       <c r="AU496" s="2"/>
       <c r="AV496" s="2"/>
     </row>
-    <row r="497" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -25622,7 +25621,7 @@
       <c r="AU497" s="2"/>
       <c r="AV497" s="2"/>
     </row>
-    <row r="498" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -25672,7 +25671,7 @@
       <c r="AU498" s="2"/>
       <c r="AV498" s="2"/>
     </row>
-    <row r="499" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -25722,7 +25721,7 @@
       <c r="AU499" s="2"/>
       <c r="AV499" s="2"/>
     </row>
-    <row r="500" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -25772,7 +25771,7 @@
       <c r="AU500" s="2"/>
       <c r="AV500" s="2"/>
     </row>
-    <row r="501" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -25822,7 +25821,7 @@
       <c r="AU501" s="2"/>
       <c r="AV501" s="2"/>
     </row>
-    <row r="502" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -25872,7 +25871,7 @@
       <c r="AU502" s="2"/>
       <c r="AV502" s="2"/>
     </row>
-    <row r="503" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -25922,7 +25921,7 @@
       <c r="AU503" s="2"/>
       <c r="AV503" s="2"/>
     </row>
-    <row r="504" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -25972,7 +25971,7 @@
       <c r="AU504" s="2"/>
       <c r="AV504" s="2"/>
     </row>
-    <row r="505" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -26022,7 +26021,7 @@
       <c r="AU505" s="2"/>
       <c r="AV505" s="2"/>
     </row>
-    <row r="506" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -26072,7 +26071,7 @@
       <c r="AU506" s="2"/>
       <c r="AV506" s="2"/>
     </row>
-    <row r="507" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -26122,7 +26121,7 @@
       <c r="AU507" s="2"/>
       <c r="AV507" s="2"/>
     </row>
-    <row r="508" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -26172,7 +26171,7 @@
       <c r="AU508" s="2"/>
       <c r="AV508" s="2"/>
     </row>
-    <row r="509" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -26222,7 +26221,7 @@
       <c r="AU509" s="2"/>
       <c r="AV509" s="2"/>
     </row>
-    <row r="510" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -26272,7 +26271,7 @@
       <c r="AU510" s="2"/>
       <c r="AV510" s="2"/>
     </row>
-    <row r="511" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -26322,7 +26321,7 @@
       <c r="AU511" s="2"/>
       <c r="AV511" s="2"/>
     </row>
-    <row r="512" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -26372,7 +26371,7 @@
       <c r="AU512" s="2"/>
       <c r="AV512" s="2"/>
     </row>
-    <row r="513" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -26422,7 +26421,7 @@
       <c r="AU513" s="2"/>
       <c r="AV513" s="2"/>
     </row>
-    <row r="514" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -26472,7 +26471,7 @@
       <c r="AU514" s="2"/>
       <c r="AV514" s="2"/>
     </row>
-    <row r="515" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -26522,7 +26521,7 @@
       <c r="AU515" s="2"/>
       <c r="AV515" s="2"/>
     </row>
-    <row r="516" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -26572,7 +26571,7 @@
       <c r="AU516" s="2"/>
       <c r="AV516" s="2"/>
     </row>
-    <row r="517" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -26622,7 +26621,7 @@
       <c r="AU517" s="2"/>
       <c r="AV517" s="2"/>
     </row>
-    <row r="518" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -26672,7 +26671,7 @@
       <c r="AU518" s="2"/>
       <c r="AV518" s="2"/>
     </row>
-    <row r="519" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -26722,7 +26721,7 @@
       <c r="AU519" s="2"/>
       <c r="AV519" s="2"/>
     </row>
-    <row r="520" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -26772,7 +26771,7 @@
       <c r="AU520" s="2"/>
       <c r="AV520" s="2"/>
     </row>
-    <row r="521" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -26822,7 +26821,7 @@
       <c r="AU521" s="2"/>
       <c r="AV521" s="2"/>
     </row>
-    <row r="522" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -26872,7 +26871,7 @@
       <c r="AU522" s="2"/>
       <c r="AV522" s="2"/>
     </row>
-    <row r="523" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -26922,7 +26921,7 @@
       <c r="AU523" s="2"/>
       <c r="AV523" s="2"/>
     </row>
-    <row r="524" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -26972,7 +26971,7 @@
       <c r="AU524" s="2"/>
       <c r="AV524" s="2"/>
     </row>
-    <row r="525" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -27022,7 +27021,7 @@
       <c r="AU525" s="2"/>
       <c r="AV525" s="2"/>
     </row>
-    <row r="526" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -27072,7 +27071,7 @@
       <c r="AU526" s="2"/>
       <c r="AV526" s="2"/>
     </row>
-    <row r="527" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -27122,7 +27121,7 @@
       <c r="AU527" s="2"/>
       <c r="AV527" s="2"/>
     </row>
-    <row r="528" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -27172,7 +27171,7 @@
       <c r="AU528" s="2"/>
       <c r="AV528" s="2"/>
     </row>
-    <row r="529" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -27222,7 +27221,7 @@
       <c r="AU529" s="2"/>
       <c r="AV529" s="2"/>
     </row>
-    <row r="530" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -27272,7 +27271,7 @@
       <c r="AU530" s="2"/>
       <c r="AV530" s="2"/>
     </row>
-    <row r="531" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -27322,7 +27321,7 @@
       <c r="AU531" s="2"/>
       <c r="AV531" s="2"/>
     </row>
-    <row r="532" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -27372,7 +27371,7 @@
       <c r="AU532" s="2"/>
       <c r="AV532" s="2"/>
     </row>
-    <row r="533" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -27422,7 +27421,7 @@
       <c r="AU533" s="2"/>
       <c r="AV533" s="2"/>
     </row>
-    <row r="534" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -27472,7 +27471,7 @@
       <c r="AU534" s="2"/>
       <c r="AV534" s="2"/>
     </row>
-    <row r="535" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -27522,7 +27521,7 @@
       <c r="AU535" s="2"/>
       <c r="AV535" s="2"/>
     </row>
-    <row r="536" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -27572,7 +27571,7 @@
       <c r="AU536" s="2"/>
       <c r="AV536" s="2"/>
     </row>
-    <row r="537" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -27622,7 +27621,7 @@
       <c r="AU537" s="2"/>
       <c r="AV537" s="2"/>
     </row>
-    <row r="538" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -27672,7 +27671,7 @@
       <c r="AU538" s="2"/>
       <c r="AV538" s="2"/>
     </row>
-    <row r="539" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -27722,7 +27721,7 @@
       <c r="AU539" s="2"/>
       <c r="AV539" s="2"/>
     </row>
-    <row r="540" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -27772,7 +27771,7 @@
       <c r="AU540" s="2"/>
       <c r="AV540" s="2"/>
     </row>
-    <row r="541" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -27822,7 +27821,7 @@
       <c r="AU541" s="2"/>
       <c r="AV541" s="2"/>
     </row>
-    <row r="542" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -27872,7 +27871,7 @@
       <c r="AU542" s="2"/>
       <c r="AV542" s="2"/>
     </row>
-    <row r="543" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -27922,7 +27921,7 @@
       <c r="AU543" s="2"/>
       <c r="AV543" s="2"/>
     </row>
-    <row r="544" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -27972,7 +27971,7 @@
       <c r="AU544" s="2"/>
       <c r="AV544" s="2"/>
     </row>
-    <row r="545" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -28022,7 +28021,7 @@
       <c r="AU545" s="2"/>
       <c r="AV545" s="2"/>
     </row>
-    <row r="546" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -28072,7 +28071,7 @@
       <c r="AU546" s="2"/>
       <c r="AV546" s="2"/>
     </row>
-    <row r="547" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -28122,7 +28121,7 @@
       <c r="AU547" s="2"/>
       <c r="AV547" s="2"/>
     </row>
-    <row r="548" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -28172,7 +28171,7 @@
       <c r="AU548" s="2"/>
       <c r="AV548" s="2"/>
     </row>
-    <row r="549" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -28222,7 +28221,7 @@
       <c r="AU549" s="2"/>
       <c r="AV549" s="2"/>
     </row>
-    <row r="550" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -28272,7 +28271,7 @@
       <c r="AU550" s="2"/>
       <c r="AV550" s="2"/>
     </row>
-    <row r="551" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -28322,7 +28321,7 @@
       <c r="AU551" s="2"/>
       <c r="AV551" s="2"/>
     </row>
-    <row r="552" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -28372,7 +28371,7 @@
       <c r="AU552" s="2"/>
       <c r="AV552" s="2"/>
     </row>
-    <row r="553" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -28422,7 +28421,7 @@
       <c r="AU553" s="2"/>
       <c r="AV553" s="2"/>
     </row>
-    <row r="554" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -28472,7 +28471,7 @@
       <c r="AU554" s="2"/>
       <c r="AV554" s="2"/>
     </row>
-    <row r="555" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -28522,7 +28521,7 @@
       <c r="AU555" s="2"/>
       <c r="AV555" s="2"/>
     </row>
-    <row r="556" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -28572,7 +28571,7 @@
       <c r="AU556" s="2"/>
       <c r="AV556" s="2"/>
     </row>
-    <row r="557" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -28622,7 +28621,7 @@
       <c r="AU557" s="2"/>
       <c r="AV557" s="2"/>
     </row>
-    <row r="558" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -28672,7 +28671,7 @@
       <c r="AU558" s="2"/>
       <c r="AV558" s="2"/>
     </row>
-    <row r="559" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -28722,7 +28721,7 @@
       <c r="AU559" s="2"/>
       <c r="AV559" s="2"/>
     </row>
-    <row r="560" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -28772,7 +28771,7 @@
       <c r="AU560" s="2"/>
       <c r="AV560" s="2"/>
     </row>
-    <row r="561" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -28822,7 +28821,7 @@
       <c r="AU561" s="2"/>
       <c r="AV561" s="2"/>
     </row>
-    <row r="562" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -28872,7 +28871,7 @@
       <c r="AU562" s="2"/>
       <c r="AV562" s="2"/>
     </row>
-    <row r="563" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -28922,7 +28921,7 @@
       <c r="AU563" s="2"/>
       <c r="AV563" s="2"/>
     </row>
-    <row r="564" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -28972,7 +28971,7 @@
       <c r="AU564" s="2"/>
       <c r="AV564" s="2"/>
     </row>
-    <row r="565" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -29022,7 +29021,7 @@
       <c r="AU565" s="2"/>
       <c r="AV565" s="2"/>
     </row>
-    <row r="566" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -29072,7 +29071,7 @@
       <c r="AU566" s="2"/>
       <c r="AV566" s="2"/>
     </row>
-    <row r="567" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -29122,7 +29121,7 @@
       <c r="AU567" s="2"/>
       <c r="AV567" s="2"/>
     </row>
-    <row r="568" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -29172,7 +29171,7 @@
       <c r="AU568" s="2"/>
       <c r="AV568" s="2"/>
     </row>
-    <row r="569" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -29222,7 +29221,7 @@
       <c r="AU569" s="2"/>
       <c r="AV569" s="2"/>
     </row>
-    <row r="570" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -29272,7 +29271,7 @@
       <c r="AU570" s="2"/>
       <c r="AV570" s="2"/>
     </row>
-    <row r="571" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -29322,7 +29321,7 @@
       <c r="AU571" s="2"/>
       <c r="AV571" s="2"/>
     </row>
-    <row r="572" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -29372,7 +29371,7 @@
       <c r="AU572" s="2"/>
       <c r="AV572" s="2"/>
     </row>
-    <row r="573" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -29422,7 +29421,7 @@
       <c r="AU573" s="2"/>
       <c r="AV573" s="2"/>
     </row>
-    <row r="574" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -29472,7 +29471,7 @@
       <c r="AU574" s="2"/>
       <c r="AV574" s="2"/>
     </row>
-    <row r="575" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -29522,7 +29521,7 @@
       <c r="AU575" s="2"/>
       <c r="AV575" s="2"/>
     </row>
-    <row r="576" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -29572,7 +29571,7 @@
       <c r="AU576" s="2"/>
       <c r="AV576" s="2"/>
     </row>
-    <row r="577" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -29622,7 +29621,7 @@
       <c r="AU577" s="2"/>
       <c r="AV577" s="2"/>
     </row>
-    <row r="578" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -29672,7 +29671,7 @@
       <c r="AU578" s="2"/>
       <c r="AV578" s="2"/>
     </row>
-    <row r="579" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -29722,7 +29721,7 @@
       <c r="AU579" s="2"/>
       <c r="AV579" s="2"/>
     </row>
-    <row r="580" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -29772,7 +29771,7 @@
       <c r="AU580" s="2"/>
       <c r="AV580" s="2"/>
     </row>
-    <row r="581" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -29822,7 +29821,7 @@
       <c r="AU581" s="2"/>
       <c r="AV581" s="2"/>
     </row>
-    <row r="582" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -29872,7 +29871,7 @@
       <c r="AU582" s="2"/>
       <c r="AV582" s="2"/>
     </row>
-    <row r="583" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -29922,7 +29921,7 @@
       <c r="AU583" s="2"/>
       <c r="AV583" s="2"/>
     </row>
-    <row r="584" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -29972,7 +29971,7 @@
       <c r="AU584" s="2"/>
       <c r="AV584" s="2"/>
     </row>
-    <row r="585" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -30022,7 +30021,7 @@
       <c r="AU585" s="2"/>
       <c r="AV585" s="2"/>
     </row>
-    <row r="586" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -30072,7 +30071,7 @@
       <c r="AU586" s="2"/>
       <c r="AV586" s="2"/>
     </row>
-    <row r="587" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -30122,7 +30121,7 @@
       <c r="AU587" s="2"/>
       <c r="AV587" s="2"/>
     </row>
-    <row r="588" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -30172,7 +30171,7 @@
       <c r="AU588" s="2"/>
       <c r="AV588" s="2"/>
     </row>
-    <row r="589" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -30222,7 +30221,7 @@
       <c r="AU589" s="2"/>
       <c r="AV589" s="2"/>
     </row>
-    <row r="590" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -30272,7 +30271,7 @@
       <c r="AU590" s="2"/>
       <c r="AV590" s="2"/>
     </row>
-    <row r="591" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -30322,7 +30321,7 @@
       <c r="AU591" s="2"/>
       <c r="AV591" s="2"/>
     </row>
-    <row r="592" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -30372,7 +30371,7 @@
       <c r="AU592" s="2"/>
       <c r="AV592" s="2"/>
     </row>
-    <row r="593" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -30422,7 +30421,7 @@
       <c r="AU593" s="2"/>
       <c r="AV593" s="2"/>
     </row>
-    <row r="594" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -30472,7 +30471,7 @@
       <c r="AU594" s="2"/>
       <c r="AV594" s="2"/>
     </row>
-    <row r="595" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -30522,7 +30521,7 @@
       <c r="AU595" s="2"/>
       <c r="AV595" s="2"/>
     </row>
-    <row r="596" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -30572,7 +30571,7 @@
       <c r="AU596" s="2"/>
       <c r="AV596" s="2"/>
     </row>
-    <row r="597" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -30622,7 +30621,7 @@
       <c r="AU597" s="2"/>
       <c r="AV597" s="2"/>
     </row>
-    <row r="598" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -30672,7 +30671,7 @@
       <c r="AU598" s="2"/>
       <c r="AV598" s="2"/>
     </row>
-    <row r="599" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -30722,7 +30721,7 @@
       <c r="AU599" s="2"/>
       <c r="AV599" s="2"/>
     </row>
-    <row r="600" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -30772,7 +30771,7 @@
       <c r="AU600" s="2"/>
       <c r="AV600" s="2"/>
     </row>
-    <row r="601" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -30822,7 +30821,7 @@
       <c r="AU601" s="2"/>
       <c r="AV601" s="2"/>
     </row>
-    <row r="602" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -30872,7 +30871,7 @@
       <c r="AU602" s="2"/>
       <c r="AV602" s="2"/>
     </row>
-    <row r="603" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -30922,7 +30921,7 @@
       <c r="AU603" s="2"/>
       <c r="AV603" s="2"/>
     </row>
-    <row r="604" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -30972,7 +30971,7 @@
       <c r="AU604" s="2"/>
       <c r="AV604" s="2"/>
     </row>
-    <row r="605" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -31022,7 +31021,7 @@
       <c r="AU605" s="2"/>
       <c r="AV605" s="2"/>
     </row>
-    <row r="606" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -31072,7 +31071,7 @@
       <c r="AU606" s="2"/>
       <c r="AV606" s="2"/>
     </row>
-    <row r="607" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -31122,7 +31121,7 @@
       <c r="AU607" s="2"/>
       <c r="AV607" s="2"/>
     </row>
-    <row r="608" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -31172,7 +31171,7 @@
       <c r="AU608" s="2"/>
       <c r="AV608" s="2"/>
     </row>
-    <row r="609" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -31222,7 +31221,7 @@
       <c r="AU609" s="2"/>
       <c r="AV609" s="2"/>
     </row>
-    <row r="610" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -31272,7 +31271,7 @@
       <c r="AU610" s="2"/>
       <c r="AV610" s="2"/>
     </row>
-    <row r="611" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -31322,7 +31321,7 @@
       <c r="AU611" s="2"/>
       <c r="AV611" s="2"/>
     </row>
-    <row r="612" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -31372,7 +31371,7 @@
       <c r="AU612" s="2"/>
       <c r="AV612" s="2"/>
     </row>
-    <row r="613" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -31422,7 +31421,7 @@
       <c r="AU613" s="2"/>
       <c r="AV613" s="2"/>
     </row>
-    <row r="614" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -31472,7 +31471,7 @@
       <c r="AU614" s="2"/>
       <c r="AV614" s="2"/>
     </row>
-    <row r="615" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -31522,7 +31521,7 @@
       <c r="AU615" s="2"/>
       <c r="AV615" s="2"/>
     </row>
-    <row r="616" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -31572,7 +31571,7 @@
       <c r="AU616" s="2"/>
       <c r="AV616" s="2"/>
     </row>
-    <row r="617" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -31622,7 +31621,7 @@
       <c r="AU617" s="2"/>
       <c r="AV617" s="2"/>
     </row>
-    <row r="618" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -31672,7 +31671,7 @@
       <c r="AU618" s="2"/>
       <c r="AV618" s="2"/>
     </row>
-    <row r="619" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -31722,7 +31721,7 @@
       <c r="AU619" s="2"/>
       <c r="AV619" s="2"/>
     </row>
-    <row r="620" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -31772,7 +31771,7 @@
       <c r="AU620" s="2"/>
       <c r="AV620" s="2"/>
     </row>
-    <row r="621" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -31822,7 +31821,7 @@
       <c r="AU621" s="2"/>
       <c r="AV621" s="2"/>
     </row>
-    <row r="622" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -31872,7 +31871,7 @@
       <c r="AU622" s="2"/>
       <c r="AV622" s="2"/>
     </row>
-    <row r="623" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -31922,7 +31921,7 @@
       <c r="AU623" s="2"/>
       <c r="AV623" s="2"/>
     </row>
-    <row r="624" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -31972,7 +31971,7 @@
       <c r="AU624" s="2"/>
       <c r="AV624" s="2"/>
     </row>
-    <row r="625" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -32022,7 +32021,7 @@
       <c r="AU625" s="2"/>
       <c r="AV625" s="2"/>
     </row>
-    <row r="626" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -32072,7 +32071,7 @@
       <c r="AU626" s="2"/>
       <c r="AV626" s="2"/>
     </row>
-    <row r="627" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -32122,7 +32121,7 @@
       <c r="AU627" s="2"/>
       <c r="AV627" s="2"/>
     </row>
-    <row r="628" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -32172,7 +32171,7 @@
       <c r="AU628" s="2"/>
       <c r="AV628" s="2"/>
     </row>
-    <row r="629" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -32222,7 +32221,7 @@
       <c r="AU629" s="2"/>
       <c r="AV629" s="2"/>
     </row>
-    <row r="630" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -32272,7 +32271,7 @@
       <c r="AU630" s="2"/>
       <c r="AV630" s="2"/>
     </row>
-    <row r="631" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -32322,7 +32321,7 @@
       <c r="AU631" s="2"/>
       <c r="AV631" s="2"/>
     </row>
-    <row r="632" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -32372,7 +32371,7 @@
       <c r="AU632" s="2"/>
       <c r="AV632" s="2"/>
     </row>
-    <row r="633" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -32422,7 +32421,7 @@
       <c r="AU633" s="2"/>
       <c r="AV633" s="2"/>
     </row>
-    <row r="634" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -32472,7 +32471,7 @@
       <c r="AU634" s="2"/>
       <c r="AV634" s="2"/>
     </row>
-    <row r="635" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -32522,7 +32521,7 @@
       <c r="AU635" s="2"/>
       <c r="AV635" s="2"/>
     </row>
-    <row r="636" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -32572,7 +32571,7 @@
       <c r="AU636" s="2"/>
       <c r="AV636" s="2"/>
     </row>
-    <row r="637" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -32622,7 +32621,7 @@
       <c r="AU637" s="2"/>
       <c r="AV637" s="2"/>
     </row>
-    <row r="638" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -32672,7 +32671,7 @@
       <c r="AU638" s="2"/>
       <c r="AV638" s="2"/>
     </row>
-    <row r="639" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -32722,7 +32721,7 @@
       <c r="AU639" s="2"/>
       <c r="AV639" s="2"/>
     </row>
-    <row r="640" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -32772,7 +32771,7 @@
       <c r="AU640" s="2"/>
       <c r="AV640" s="2"/>
     </row>
-    <row r="641" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -32822,7 +32821,7 @@
       <c r="AU641" s="2"/>
       <c r="AV641" s="2"/>
     </row>
-    <row r="642" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -32872,7 +32871,7 @@
       <c r="AU642" s="2"/>
       <c r="AV642" s="2"/>
     </row>
-    <row r="643" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -32922,7 +32921,7 @@
       <c r="AU643" s="2"/>
       <c r="AV643" s="2"/>
     </row>
-    <row r="644" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -32972,7 +32971,7 @@
       <c r="AU644" s="2"/>
       <c r="AV644" s="2"/>
     </row>
-    <row r="645" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -33022,7 +33021,7 @@
       <c r="AU645" s="2"/>
       <c r="AV645" s="2"/>
     </row>
-    <row r="646" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -33072,7 +33071,7 @@
       <c r="AU646" s="2"/>
       <c r="AV646" s="2"/>
     </row>
-    <row r="647" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -33122,7 +33121,7 @@
       <c r="AU647" s="2"/>
       <c r="AV647" s="2"/>
     </row>
-    <row r="648" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -33172,7 +33171,7 @@
       <c r="AU648" s="2"/>
       <c r="AV648" s="2"/>
     </row>
-    <row r="649" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -33222,7 +33221,7 @@
       <c r="AU649" s="2"/>
       <c r="AV649" s="2"/>
     </row>
-    <row r="650" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -33272,7 +33271,7 @@
       <c r="AU650" s="2"/>
       <c r="AV650" s="2"/>
     </row>
-    <row r="651" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -33322,7 +33321,7 @@
       <c r="AU651" s="2"/>
       <c r="AV651" s="2"/>
     </row>
-    <row r="652" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -33372,7 +33371,7 @@
       <c r="AU652" s="2"/>
       <c r="AV652" s="2"/>
     </row>
-    <row r="653" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -33422,7 +33421,7 @@
       <c r="AU653" s="2"/>
       <c r="AV653" s="2"/>
     </row>
-    <row r="654" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -33472,7 +33471,7 @@
       <c r="AU654" s="2"/>
       <c r="AV654" s="2"/>
     </row>
-    <row r="655" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -33522,7 +33521,7 @@
       <c r="AU655" s="2"/>
       <c r="AV655" s="2"/>
     </row>
-    <row r="656" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -33572,7 +33571,7 @@
       <c r="AU656" s="2"/>
       <c r="AV656" s="2"/>
     </row>
-    <row r="657" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -33622,7 +33621,7 @@
       <c r="AU657" s="2"/>
       <c r="AV657" s="2"/>
     </row>
-    <row r="658" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -33672,7 +33671,7 @@
       <c r="AU658" s="2"/>
       <c r="AV658" s="2"/>
     </row>
-    <row r="659" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -33722,7 +33721,7 @@
       <c r="AU659" s="2"/>
       <c r="AV659" s="2"/>
     </row>
-    <row r="660" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -33772,7 +33771,7 @@
       <c r="AU660" s="2"/>
       <c r="AV660" s="2"/>
     </row>
-    <row r="661" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -33822,7 +33821,7 @@
       <c r="AU661" s="2"/>
       <c r="AV661" s="2"/>
     </row>
-    <row r="662" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -33872,7 +33871,7 @@
       <c r="AU662" s="2"/>
       <c r="AV662" s="2"/>
     </row>
-    <row r="663" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -33922,7 +33921,7 @@
       <c r="AU663" s="2"/>
       <c r="AV663" s="2"/>
     </row>
-    <row r="664" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -33972,7 +33971,7 @@
       <c r="AU664" s="2"/>
       <c r="AV664" s="2"/>
     </row>
-    <row r="665" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -34022,7 +34021,7 @@
       <c r="AU665" s="2"/>
       <c r="AV665" s="2"/>
     </row>
-    <row r="666" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -34072,7 +34071,7 @@
       <c r="AU666" s="2"/>
       <c r="AV666" s="2"/>
     </row>
-    <row r="667" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -34122,7 +34121,7 @@
       <c r="AU667" s="2"/>
       <c r="AV667" s="2"/>
     </row>
-    <row r="668" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -34172,7 +34171,7 @@
       <c r="AU668" s="2"/>
       <c r="AV668" s="2"/>
     </row>
-    <row r="669" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -34222,7 +34221,7 @@
       <c r="AU669" s="2"/>
       <c r="AV669" s="2"/>
     </row>
-    <row r="670" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -34272,7 +34271,7 @@
       <c r="AU670" s="2"/>
       <c r="AV670" s="2"/>
     </row>
-    <row r="671" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -34322,7 +34321,7 @@
       <c r="AU671" s="2"/>
       <c r="AV671" s="2"/>
     </row>
-    <row r="672" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -34372,7 +34371,7 @@
       <c r="AU672" s="2"/>
       <c r="AV672" s="2"/>
     </row>
-    <row r="673" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -34422,7 +34421,7 @@
       <c r="AU673" s="2"/>
       <c r="AV673" s="2"/>
     </row>
-    <row r="674" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -34472,7 +34471,7 @@
       <c r="AU674" s="2"/>
       <c r="AV674" s="2"/>
     </row>
-    <row r="675" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -34522,7 +34521,7 @@
       <c r="AU675" s="2"/>
       <c r="AV675" s="2"/>
     </row>
-    <row r="676" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -34572,7 +34571,7 @@
       <c r="AU676" s="2"/>
       <c r="AV676" s="2"/>
     </row>
-    <row r="677" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -34622,7 +34621,7 @@
       <c r="AU677" s="2"/>
       <c r="AV677" s="2"/>
     </row>
-    <row r="678" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -34672,7 +34671,7 @@
       <c r="AU678" s="2"/>
       <c r="AV678" s="2"/>
     </row>
-    <row r="679" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -34722,7 +34721,7 @@
       <c r="AU679" s="2"/>
       <c r="AV679" s="2"/>
     </row>
-    <row r="680" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -34772,7 +34771,7 @@
       <c r="AU680" s="2"/>
       <c r="AV680" s="2"/>
     </row>
-    <row r="681" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -34822,7 +34821,7 @@
       <c r="AU681" s="2"/>
       <c r="AV681" s="2"/>
     </row>
-    <row r="682" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -34872,7 +34871,7 @@
       <c r="AU682" s="2"/>
       <c r="AV682" s="2"/>
     </row>
-    <row r="683" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -34922,7 +34921,7 @@
       <c r="AU683" s="2"/>
       <c r="AV683" s="2"/>
     </row>
-    <row r="684" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -34972,7 +34971,7 @@
       <c r="AU684" s="2"/>
       <c r="AV684" s="2"/>
     </row>
-    <row r="685" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -35022,7 +35021,7 @@
       <c r="AU685" s="2"/>
       <c r="AV685" s="2"/>
     </row>
-    <row r="686" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -35072,7 +35071,7 @@
       <c r="AU686" s="2"/>
       <c r="AV686" s="2"/>
     </row>
-    <row r="687" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -35122,7 +35121,7 @@
       <c r="AU687" s="2"/>
       <c r="AV687" s="2"/>
     </row>
-    <row r="688" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -35172,7 +35171,7 @@
       <c r="AU688" s="2"/>
       <c r="AV688" s="2"/>
     </row>
-    <row r="689" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -35222,7 +35221,7 @@
       <c r="AU689" s="2"/>
       <c r="AV689" s="2"/>
     </row>
-    <row r="690" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -35272,7 +35271,7 @@
       <c r="AU690" s="2"/>
       <c r="AV690" s="2"/>
     </row>
-    <row r="691" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -35322,7 +35321,7 @@
       <c r="AU691" s="2"/>
       <c r="AV691" s="2"/>
     </row>
-    <row r="692" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -35372,7 +35371,7 @@
       <c r="AU692" s="2"/>
       <c r="AV692" s="2"/>
     </row>
-    <row r="693" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -35422,7 +35421,7 @@
       <c r="AU693" s="2"/>
       <c r="AV693" s="2"/>
     </row>
-    <row r="694" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -35472,7 +35471,7 @@
       <c r="AU694" s="2"/>
       <c r="AV694" s="2"/>
     </row>
-    <row r="695" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -35522,7 +35521,7 @@
       <c r="AU695" s="2"/>
       <c r="AV695" s="2"/>
     </row>
-    <row r="696" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -35572,7 +35571,7 @@
       <c r="AU696" s="2"/>
       <c r="AV696" s="2"/>
     </row>
-    <row r="697" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -35622,7 +35621,7 @@
       <c r="AU697" s="2"/>
       <c r="AV697" s="2"/>
     </row>
-    <row r="698" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -35672,7 +35671,7 @@
       <c r="AU698" s="2"/>
       <c r="AV698" s="2"/>
     </row>
-    <row r="699" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -35722,7 +35721,7 @@
       <c r="AU699" s="2"/>
       <c r="AV699" s="2"/>
     </row>
-    <row r="700" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -35772,7 +35771,7 @@
       <c r="AU700" s="2"/>
       <c r="AV700" s="2"/>
     </row>
-    <row r="701" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -35822,7 +35821,7 @@
       <c r="AU701" s="2"/>
       <c r="AV701" s="2"/>
     </row>
-    <row r="702" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -35872,7 +35871,7 @@
       <c r="AU702" s="2"/>
       <c r="AV702" s="2"/>
     </row>
-    <row r="703" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -35922,7 +35921,7 @@
       <c r="AU703" s="2"/>
       <c r="AV703" s="2"/>
     </row>
-    <row r="704" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -35972,7 +35971,7 @@
       <c r="AU704" s="2"/>
       <c r="AV704" s="2"/>
     </row>
-    <row r="705" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -36022,7 +36021,7 @@
       <c r="AU705" s="2"/>
       <c r="AV705" s="2"/>
     </row>
-    <row r="706" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -36072,7 +36071,7 @@
       <c r="AU706" s="2"/>
       <c r="AV706" s="2"/>
     </row>
-    <row r="707" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -36122,7 +36121,7 @@
       <c r="AU707" s="2"/>
       <c r="AV707" s="2"/>
     </row>
-    <row r="708" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -36172,7 +36171,7 @@
       <c r="AU708" s="2"/>
       <c r="AV708" s="2"/>
     </row>
-    <row r="709" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -36222,7 +36221,7 @@
       <c r="AU709" s="2"/>
       <c r="AV709" s="2"/>
     </row>
-    <row r="710" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -36272,7 +36271,7 @@
       <c r="AU710" s="2"/>
       <c r="AV710" s="2"/>
     </row>
-    <row r="711" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -36322,7 +36321,7 @@
       <c r="AU711" s="2"/>
       <c r="AV711" s="2"/>
     </row>
-    <row r="712" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -36372,7 +36371,7 @@
       <c r="AU712" s="2"/>
       <c r="AV712" s="2"/>
     </row>
-    <row r="713" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -36422,7 +36421,7 @@
       <c r="AU713" s="2"/>
       <c r="AV713" s="2"/>
     </row>
-    <row r="714" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -36472,7 +36471,7 @@
       <c r="AU714" s="2"/>
       <c r="AV714" s="2"/>
     </row>
-    <row r="715" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -36522,7 +36521,7 @@
       <c r="AU715" s="2"/>
       <c r="AV715" s="2"/>
     </row>
-    <row r="716" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -36572,7 +36571,7 @@
       <c r="AU716" s="2"/>
       <c r="AV716" s="2"/>
     </row>
-    <row r="717" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -36622,7 +36621,7 @@
       <c r="AU717" s="2"/>
       <c r="AV717" s="2"/>
     </row>
-    <row r="718" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -36672,7 +36671,7 @@
       <c r="AU718" s="2"/>
       <c r="AV718" s="2"/>
     </row>
-    <row r="719" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -36722,7 +36721,7 @@
       <c r="AU719" s="2"/>
       <c r="AV719" s="2"/>
     </row>
-    <row r="720" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -36772,7 +36771,7 @@
       <c r="AU720" s="2"/>
       <c r="AV720" s="2"/>
     </row>
-    <row r="721" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -36822,7 +36821,7 @@
       <c r="AU721" s="2"/>
       <c r="AV721" s="2"/>
     </row>
-    <row r="722" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -36872,7 +36871,7 @@
       <c r="AU722" s="2"/>
       <c r="AV722" s="2"/>
     </row>
-    <row r="723" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -36922,7 +36921,7 @@
       <c r="AU723" s="2"/>
       <c r="AV723" s="2"/>
     </row>
-    <row r="724" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -36972,7 +36971,7 @@
       <c r="AU724" s="2"/>
       <c r="AV724" s="2"/>
     </row>
-    <row r="725" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -37022,7 +37021,7 @@
       <c r="AU725" s="2"/>
       <c r="AV725" s="2"/>
     </row>
-    <row r="726" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -37072,7 +37071,7 @@
       <c r="AU726" s="2"/>
       <c r="AV726" s="2"/>
     </row>
-    <row r="727" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -37122,7 +37121,7 @@
       <c r="AU727" s="2"/>
       <c r="AV727" s="2"/>
     </row>
-    <row r="728" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -37172,7 +37171,7 @@
       <c r="AU728" s="2"/>
       <c r="AV728" s="2"/>
     </row>
-    <row r="729" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -37222,7 +37221,7 @@
       <c r="AU729" s="2"/>
       <c r="AV729" s="2"/>
     </row>
-    <row r="730" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -37272,7 +37271,7 @@
       <c r="AU730" s="2"/>
       <c r="AV730" s="2"/>
     </row>
-    <row r="731" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -37322,7 +37321,7 @@
       <c r="AU731" s="2"/>
       <c r="AV731" s="2"/>
     </row>
-    <row r="732" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -37372,7 +37371,7 @@
       <c r="AU732" s="2"/>
       <c r="AV732" s="2"/>
     </row>
-    <row r="733" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -37422,7 +37421,7 @@
       <c r="AU733" s="2"/>
       <c r="AV733" s="2"/>
     </row>
-    <row r="734" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -37472,7 +37471,7 @@
       <c r="AU734" s="2"/>
       <c r="AV734" s="2"/>
     </row>
-    <row r="735" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -37522,7 +37521,7 @@
       <c r="AU735" s="2"/>
       <c r="AV735" s="2"/>
     </row>
-    <row r="736" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -37572,7 +37571,7 @@
       <c r="AU736" s="2"/>
       <c r="AV736" s="2"/>
     </row>
-    <row r="737" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -37622,7 +37621,7 @@
       <c r="AU737" s="2"/>
       <c r="AV737" s="2"/>
     </row>
-    <row r="738" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -37672,7 +37671,7 @@
       <c r="AU738" s="2"/>
       <c r="AV738" s="2"/>
     </row>
-    <row r="739" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -37722,7 +37721,7 @@
       <c r="AU739" s="2"/>
       <c r="AV739" s="2"/>
     </row>
-    <row r="740" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -37772,7 +37771,7 @@
       <c r="AU740" s="2"/>
       <c r="AV740" s="2"/>
     </row>
-    <row r="741" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -37822,7 +37821,7 @@
       <c r="AU741" s="2"/>
       <c r="AV741" s="2"/>
     </row>
-    <row r="742" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -37872,7 +37871,7 @@
       <c r="AU742" s="2"/>
       <c r="AV742" s="2"/>
     </row>
-    <row r="743" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -37922,7 +37921,7 @@
       <c r="AU743" s="2"/>
       <c r="AV743" s="2"/>
     </row>
-    <row r="744" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -37972,7 +37971,7 @@
       <c r="AU744" s="2"/>
       <c r="AV744" s="2"/>
     </row>
-    <row r="745" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -38022,7 +38021,7 @@
       <c r="AU745" s="2"/>
       <c r="AV745" s="2"/>
     </row>
-    <row r="746" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -38072,7 +38071,7 @@
       <c r="AU746" s="2"/>
       <c r="AV746" s="2"/>
     </row>
-    <row r="747" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -38122,7 +38121,7 @@
       <c r="AU747" s="2"/>
       <c r="AV747" s="2"/>
     </row>
-    <row r="748" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -38172,7 +38171,7 @@
       <c r="AU748" s="2"/>
       <c r="AV748" s="2"/>
     </row>
-    <row r="749" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -38222,7 +38221,7 @@
       <c r="AU749" s="2"/>
       <c r="AV749" s="2"/>
     </row>
-    <row r="750" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -38272,7 +38271,7 @@
       <c r="AU750" s="2"/>
       <c r="AV750" s="2"/>
     </row>
-    <row r="751" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -38322,7 +38321,7 @@
       <c r="AU751" s="2"/>
       <c r="AV751" s="2"/>
     </row>
-    <row r="752" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -38372,7 +38371,7 @@
       <c r="AU752" s="2"/>
       <c r="AV752" s="2"/>
     </row>
-    <row r="753" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -38422,7 +38421,7 @@
       <c r="AU753" s="2"/>
       <c r="AV753" s="2"/>
     </row>
-    <row r="754" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -38472,7 +38471,7 @@
       <c r="AU754" s="2"/>
       <c r="AV754" s="2"/>
     </row>
-    <row r="755" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -38522,7 +38521,7 @@
       <c r="AU755" s="2"/>
       <c r="AV755" s="2"/>
     </row>
-    <row r="756" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -38572,7 +38571,7 @@
       <c r="AU756" s="2"/>
       <c r="AV756" s="2"/>
     </row>
-    <row r="757" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -38622,7 +38621,7 @@
       <c r="AU757" s="2"/>
       <c r="AV757" s="2"/>
     </row>
-    <row r="758" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -38672,7 +38671,7 @@
       <c r="AU758" s="2"/>
       <c r="AV758" s="2"/>
     </row>
-    <row r="759" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -38722,7 +38721,7 @@
       <c r="AU759" s="2"/>
       <c r="AV759" s="2"/>
     </row>
-    <row r="760" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -38772,7 +38771,7 @@
       <c r="AU760" s="2"/>
       <c r="AV760" s="2"/>
     </row>
-    <row r="761" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -38822,7 +38821,7 @@
       <c r="AU761" s="2"/>
       <c r="AV761" s="2"/>
     </row>
-    <row r="762" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -38872,7 +38871,7 @@
       <c r="AU762" s="2"/>
       <c r="AV762" s="2"/>
     </row>
-    <row r="763" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -38922,7 +38921,7 @@
       <c r="AU763" s="2"/>
       <c r="AV763" s="2"/>
     </row>
-    <row r="764" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -38972,7 +38971,7 @@
       <c r="AU764" s="2"/>
       <c r="AV764" s="2"/>
     </row>
-    <row r="765" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -39022,7 +39021,7 @@
       <c r="AU765" s="2"/>
       <c r="AV765" s="2"/>
     </row>
-    <row r="766" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -39072,7 +39071,7 @@
       <c r="AU766" s="2"/>
       <c r="AV766" s="2"/>
     </row>
-    <row r="767" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -39122,7 +39121,7 @@
       <c r="AU767" s="2"/>
       <c r="AV767" s="2"/>
     </row>
-    <row r="768" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -39172,7 +39171,7 @@
       <c r="AU768" s="2"/>
       <c r="AV768" s="2"/>
     </row>
-    <row r="769" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -39222,7 +39221,7 @@
       <c r="AU769" s="2"/>
       <c r="AV769" s="2"/>
     </row>
-    <row r="770" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -39272,7 +39271,7 @@
       <c r="AU770" s="2"/>
       <c r="AV770" s="2"/>
     </row>
-    <row r="771" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -39322,7 +39321,7 @@
       <c r="AU771" s="2"/>
       <c r="AV771" s="2"/>
     </row>
-    <row r="772" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -39372,7 +39371,7 @@
       <c r="AU772" s="2"/>
       <c r="AV772" s="2"/>
     </row>
-    <row r="773" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -39422,7 +39421,7 @@
       <c r="AU773" s="2"/>
       <c r="AV773" s="2"/>
     </row>
-    <row r="774" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -39472,7 +39471,7 @@
       <c r="AU774" s="2"/>
       <c r="AV774" s="2"/>
     </row>
-    <row r="775" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -39522,7 +39521,7 @@
       <c r="AU775" s="2"/>
       <c r="AV775" s="2"/>
     </row>
-    <row r="776" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -39572,7 +39571,7 @@
       <c r="AU776" s="2"/>
       <c r="AV776" s="2"/>
     </row>
-    <row r="777" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -39622,7 +39621,7 @@
       <c r="AU777" s="2"/>
       <c r="AV777" s="2"/>
     </row>
-    <row r="778" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -39672,7 +39671,7 @@
       <c r="AU778" s="2"/>
       <c r="AV778" s="2"/>
     </row>
-    <row r="779" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -39722,7 +39721,7 @@
       <c r="AU779" s="2"/>
       <c r="AV779" s="2"/>
     </row>
-    <row r="780" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -39772,7 +39771,7 @@
       <c r="AU780" s="2"/>
       <c r="AV780" s="2"/>
     </row>
-    <row r="781" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -39822,7 +39821,7 @@
       <c r="AU781" s="2"/>
       <c r="AV781" s="2"/>
     </row>
-    <row r="782" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -39872,7 +39871,7 @@
       <c r="AU782" s="2"/>
       <c r="AV782" s="2"/>
     </row>
-    <row r="783" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -39922,7 +39921,7 @@
       <c r="AU783" s="2"/>
       <c r="AV783" s="2"/>
     </row>
-    <row r="784" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -39972,7 +39971,7 @@
       <c r="AU784" s="2"/>
       <c r="AV784" s="2"/>
     </row>
-    <row r="785" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -40022,7 +40021,7 @@
       <c r="AU785" s="2"/>
       <c r="AV785" s="2"/>
     </row>
-    <row r="786" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -40072,7 +40071,7 @@
       <c r="AU786" s="2"/>
       <c r="AV786" s="2"/>
     </row>
-    <row r="787" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -40122,7 +40121,7 @@
       <c r="AU787" s="2"/>
       <c r="AV787" s="2"/>
     </row>
-    <row r="788" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -40172,7 +40171,7 @@
       <c r="AU788" s="2"/>
       <c r="AV788" s="2"/>
     </row>
-    <row r="789" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -40222,7 +40221,7 @@
       <c r="AU789" s="2"/>
       <c r="AV789" s="2"/>
     </row>
-    <row r="790" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -40272,7 +40271,7 @@
       <c r="AU790" s="2"/>
       <c r="AV790" s="2"/>
     </row>
-    <row r="791" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -40322,7 +40321,7 @@
       <c r="AU791" s="2"/>
       <c r="AV791" s="2"/>
     </row>
-    <row r="792" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -40372,7 +40371,7 @@
       <c r="AU792" s="2"/>
       <c r="AV792" s="2"/>
     </row>
-    <row r="793" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -40422,7 +40421,7 @@
       <c r="AU793" s="2"/>
       <c r="AV793" s="2"/>
     </row>
-    <row r="794" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -40472,7 +40471,7 @@
       <c r="AU794" s="2"/>
       <c r="AV794" s="2"/>
     </row>
-    <row r="795" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -40522,7 +40521,7 @@
       <c r="AU795" s="2"/>
       <c r="AV795" s="2"/>
     </row>
-    <row r="796" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -40572,7 +40571,7 @@
       <c r="AU796" s="2"/>
       <c r="AV796" s="2"/>
     </row>
-    <row r="797" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -40622,7 +40621,7 @@
       <c r="AU797" s="2"/>
       <c r="AV797" s="2"/>
     </row>
-    <row r="798" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -40672,7 +40671,7 @@
       <c r="AU798" s="2"/>
       <c r="AV798" s="2"/>
     </row>
-    <row r="799" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -40722,7 +40721,7 @@
       <c r="AU799" s="2"/>
       <c r="AV799" s="2"/>
     </row>
-    <row r="800" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -40772,7 +40771,7 @@
       <c r="AU800" s="2"/>
       <c r="AV800" s="2"/>
     </row>
-    <row r="801" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -40822,7 +40821,7 @@
       <c r="AU801" s="2"/>
       <c r="AV801" s="2"/>
     </row>
-    <row r="802" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -40872,7 +40871,7 @@
       <c r="AU802" s="2"/>
       <c r="AV802" s="2"/>
     </row>
-    <row r="803" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -40922,7 +40921,7 @@
       <c r="AU803" s="2"/>
       <c r="AV803" s="2"/>
     </row>
-    <row r="804" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -40972,7 +40971,7 @@
       <c r="AU804" s="2"/>
       <c r="AV804" s="2"/>
     </row>
-    <row r="805" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -41022,7 +41021,7 @@
       <c r="AU805" s="2"/>
       <c r="AV805" s="2"/>
     </row>
-    <row r="806" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -41072,7 +41071,7 @@
       <c r="AU806" s="2"/>
       <c r="AV806" s="2"/>
     </row>
-    <row r="807" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -41122,7 +41121,7 @@
       <c r="AU807" s="2"/>
       <c r="AV807" s="2"/>
     </row>
-    <row r="808" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -41172,7 +41171,7 @@
       <c r="AU808" s="2"/>
       <c r="AV808" s="2"/>
     </row>
-    <row r="809" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -41222,7 +41221,7 @@
       <c r="AU809" s="2"/>
       <c r="AV809" s="2"/>
     </row>
-    <row r="810" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -41272,7 +41271,7 @@
       <c r="AU810" s="2"/>
       <c r="AV810" s="2"/>
     </row>
-    <row r="811" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -41322,7 +41321,7 @@
       <c r="AU811" s="2"/>
       <c r="AV811" s="2"/>
     </row>
-    <row r="812" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -41372,7 +41371,7 @@
       <c r="AU812" s="2"/>
       <c r="AV812" s="2"/>
     </row>
-    <row r="813" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -41422,7 +41421,7 @@
       <c r="AU813" s="2"/>
       <c r="AV813" s="2"/>
     </row>
-    <row r="814" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -41472,7 +41471,7 @@
       <c r="AU814" s="2"/>
       <c r="AV814" s="2"/>
     </row>
-    <row r="815" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -41522,7 +41521,7 @@
       <c r="AU815" s="2"/>
       <c r="AV815" s="2"/>
     </row>
-    <row r="816" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -41572,7 +41571,7 @@
       <c r="AU816" s="2"/>
       <c r="AV816" s="2"/>
     </row>
-    <row r="817" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -41622,7 +41621,7 @@
       <c r="AU817" s="2"/>
       <c r="AV817" s="2"/>
     </row>
-    <row r="818" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -41672,7 +41671,7 @@
       <c r="AU818" s="2"/>
       <c r="AV818" s="2"/>
     </row>
-    <row r="819" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -41722,7 +41721,7 @@
       <c r="AU819" s="2"/>
       <c r="AV819" s="2"/>
     </row>
-    <row r="820" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -41772,7 +41771,7 @@
       <c r="AU820" s="2"/>
       <c r="AV820" s="2"/>
     </row>
-    <row r="821" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -41822,7 +41821,7 @@
       <c r="AU821" s="2"/>
       <c r="AV821" s="2"/>
     </row>
-    <row r="822" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -41872,7 +41871,7 @@
       <c r="AU822" s="2"/>
       <c r="AV822" s="2"/>
     </row>
-    <row r="823" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -41922,7 +41921,7 @@
       <c r="AU823" s="2"/>
       <c r="AV823" s="2"/>
     </row>
-    <row r="824" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -41972,7 +41971,7 @@
       <c r="AU824" s="2"/>
       <c r="AV824" s="2"/>
     </row>
-    <row r="825" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -42022,7 +42021,7 @@
       <c r="AU825" s="2"/>
       <c r="AV825" s="2"/>
     </row>
-    <row r="826" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -42072,7 +42071,7 @@
       <c r="AU826" s="2"/>
       <c r="AV826" s="2"/>
     </row>
-    <row r="827" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -42122,7 +42121,7 @@
       <c r="AU827" s="2"/>
       <c r="AV827" s="2"/>
     </row>
-    <row r="828" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -42172,7 +42171,7 @@
       <c r="AU828" s="2"/>
       <c r="AV828" s="2"/>
     </row>
-    <row r="829" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -42222,7 +42221,7 @@
       <c r="AU829" s="2"/>
       <c r="AV829" s="2"/>
     </row>
-    <row r="830" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -42272,7 +42271,7 @@
       <c r="AU830" s="2"/>
       <c r="AV830" s="2"/>
     </row>
-    <row r="831" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -42322,7 +42321,7 @@
       <c r="AU831" s="2"/>
       <c r="AV831" s="2"/>
     </row>
-    <row r="832" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -42372,7 +42371,7 @@
       <c r="AU832" s="2"/>
       <c r="AV832" s="2"/>
     </row>
-    <row r="833" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -42422,7 +42421,7 @@
       <c r="AU833" s="2"/>
       <c r="AV833" s="2"/>
     </row>
-    <row r="834" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -42472,7 +42471,7 @@
       <c r="AU834" s="2"/>
       <c r="AV834" s="2"/>
     </row>
-    <row r="835" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -42522,7 +42521,7 @@
       <c r="AU835" s="2"/>
       <c r="AV835" s="2"/>
     </row>
-    <row r="836" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -42572,7 +42571,7 @@
       <c r="AU836" s="2"/>
       <c r="AV836" s="2"/>
     </row>
-    <row r="837" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -42622,7 +42621,7 @@
       <c r="AU837" s="2"/>
       <c r="AV837" s="2"/>
     </row>
-    <row r="838" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -42672,7 +42671,7 @@
       <c r="AU838" s="2"/>
       <c r="AV838" s="2"/>
     </row>
-    <row r="839" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -42722,7 +42721,7 @@
       <c r="AU839" s="2"/>
       <c r="AV839" s="2"/>
     </row>
-    <row r="840" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -42772,7 +42771,7 @@
       <c r="AU840" s="2"/>
       <c r="AV840" s="2"/>
     </row>
-    <row r="841" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -42822,7 +42821,7 @@
       <c r="AU841" s="2"/>
       <c r="AV841" s="2"/>
     </row>
-    <row r="842" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -42872,7 +42871,7 @@
       <c r="AU842" s="2"/>
       <c r="AV842" s="2"/>
     </row>
-    <row r="843" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -42922,7 +42921,7 @@
       <c r="AU843" s="2"/>
       <c r="AV843" s="2"/>
     </row>
-    <row r="844" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -42972,7 +42971,7 @@
       <c r="AU844" s="2"/>
       <c r="AV844" s="2"/>
     </row>
-    <row r="845" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -43022,7 +43021,7 @@
       <c r="AU845" s="2"/>
       <c r="AV845" s="2"/>
     </row>
-    <row r="846" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -43072,7 +43071,7 @@
       <c r="AU846" s="2"/>
       <c r="AV846" s="2"/>
     </row>
-    <row r="847" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -43122,7 +43121,7 @@
       <c r="AU847" s="2"/>
       <c r="AV847" s="2"/>
     </row>
-    <row r="848" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -43172,7 +43171,7 @@
       <c r="AU848" s="2"/>
       <c r="AV848" s="2"/>
     </row>
-    <row r="849" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -43222,7 +43221,7 @@
       <c r="AU849" s="2"/>
       <c r="AV849" s="2"/>
     </row>
-    <row r="850" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -43272,7 +43271,7 @@
       <c r="AU850" s="2"/>
       <c r="AV850" s="2"/>
     </row>
-    <row r="851" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -43322,7 +43321,7 @@
       <c r="AU851" s="2"/>
       <c r="AV851" s="2"/>
     </row>
-    <row r="852" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -43372,7 +43371,7 @@
       <c r="AU852" s="2"/>
       <c r="AV852" s="2"/>
     </row>
-    <row r="853" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -43422,7 +43421,7 @@
       <c r="AU853" s="2"/>
       <c r="AV853" s="2"/>
     </row>
-    <row r="854" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -43472,7 +43471,7 @@
       <c r="AU854" s="2"/>
       <c r="AV854" s="2"/>
     </row>
-    <row r="855" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -43522,7 +43521,7 @@
       <c r="AU855" s="2"/>
       <c r="AV855" s="2"/>
     </row>
-    <row r="856" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -43572,7 +43571,7 @@
       <c r="AU856" s="2"/>
       <c r="AV856" s="2"/>
     </row>
-    <row r="857" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -43622,7 +43621,7 @@
       <c r="AU857" s="2"/>
       <c r="AV857" s="2"/>
     </row>
-    <row r="858" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -43672,7 +43671,7 @@
       <c r="AU858" s="2"/>
       <c r="AV858" s="2"/>
     </row>
-    <row r="859" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -43722,7 +43721,7 @@
       <c r="AU859" s="2"/>
       <c r="AV859" s="2"/>
     </row>
-    <row r="860" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -43772,7 +43771,7 @@
       <c r="AU860" s="2"/>
       <c r="AV860" s="2"/>
     </row>
-    <row r="861" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -43822,7 +43821,7 @@
       <c r="AU861" s="2"/>
       <c r="AV861" s="2"/>
     </row>
-    <row r="862" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -43872,7 +43871,7 @@
       <c r="AU862" s="2"/>
       <c r="AV862" s="2"/>
     </row>
-    <row r="863" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -43922,7 +43921,7 @@
       <c r="AU863" s="2"/>
       <c r="AV863" s="2"/>
     </row>
-    <row r="864" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -43972,7 +43971,7 @@
       <c r="AU864" s="2"/>
       <c r="AV864" s="2"/>
     </row>
-    <row r="865" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -44022,7 +44021,7 @@
       <c r="AU865" s="2"/>
       <c r="AV865" s="2"/>
     </row>
-    <row r="866" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -44072,7 +44071,7 @@
       <c r="AU866" s="2"/>
       <c r="AV866" s="2"/>
     </row>
-    <row r="867" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -44122,7 +44121,7 @@
       <c r="AU867" s="2"/>
       <c r="AV867" s="2"/>
     </row>
-    <row r="868" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -44172,7 +44171,7 @@
       <c r="AU868" s="2"/>
       <c r="AV868" s="2"/>
     </row>
-    <row r="869" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -44222,7 +44221,7 @@
       <c r="AU869" s="2"/>
       <c r="AV869" s="2"/>
     </row>
-    <row r="870" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -44272,7 +44271,7 @@
       <c r="AU870" s="2"/>
       <c r="AV870" s="2"/>
     </row>
-    <row r="871" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -44322,7 +44321,7 @@
       <c r="AU871" s="2"/>
       <c r="AV871" s="2"/>
     </row>
-    <row r="872" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -44372,7 +44371,7 @@
       <c r="AU872" s="2"/>
       <c r="AV872" s="2"/>
     </row>
-    <row r="873" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -44422,7 +44421,7 @@
       <c r="AU873" s="2"/>
       <c r="AV873" s="2"/>
     </row>
-    <row r="874" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -44472,7 +44471,7 @@
       <c r="AU874" s="2"/>
       <c r="AV874" s="2"/>
     </row>
-    <row r="875" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -44522,7 +44521,7 @@
       <c r="AU875" s="2"/>
       <c r="AV875" s="2"/>
     </row>
-    <row r="876" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -44572,7 +44571,7 @@
       <c r="AU876" s="2"/>
       <c r="AV876" s="2"/>
     </row>
-    <row r="877" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -44622,7 +44621,7 @@
       <c r="AU877" s="2"/>
       <c r="AV877" s="2"/>
     </row>
-    <row r="878" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -44672,7 +44671,7 @@
       <c r="AU878" s="2"/>
       <c r="AV878" s="2"/>
     </row>
-    <row r="879" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -44722,7 +44721,7 @@
       <c r="AU879" s="2"/>
       <c r="AV879" s="2"/>
     </row>
-    <row r="880" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -44772,7 +44771,7 @@
       <c r="AU880" s="2"/>
       <c r="AV880" s="2"/>
     </row>
-    <row r="881" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -44822,7 +44821,7 @@
       <c r="AU881" s="2"/>
       <c r="AV881" s="2"/>
     </row>
-    <row r="882" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -44872,7 +44871,7 @@
       <c r="AU882" s="2"/>
       <c r="AV882" s="2"/>
     </row>
-    <row r="883" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -44922,7 +44921,7 @@
       <c r="AU883" s="2"/>
       <c r="AV883" s="2"/>
     </row>
-    <row r="884" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -44972,7 +44971,7 @@
       <c r="AU884" s="2"/>
       <c r="AV884" s="2"/>
     </row>
-    <row r="885" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -45022,7 +45021,7 @@
       <c r="AU885" s="2"/>
       <c r="AV885" s="2"/>
     </row>
-    <row r="886" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -45072,7 +45071,7 @@
       <c r="AU886" s="2"/>
       <c r="AV886" s="2"/>
     </row>
-    <row r="887" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -45122,7 +45121,7 @@
       <c r="AU887" s="2"/>
       <c r="AV887" s="2"/>
     </row>
-    <row r="888" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -45172,7 +45171,7 @@
       <c r="AU888" s="2"/>
       <c r="AV888" s="2"/>
     </row>
-    <row r="889" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -45222,7 +45221,7 @@
       <c r="AU889" s="2"/>
       <c r="AV889" s="2"/>
     </row>
-    <row r="890" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -45272,7 +45271,7 @@
       <c r="AU890" s="2"/>
       <c r="AV890" s="2"/>
     </row>
-    <row r="891" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -45322,7 +45321,7 @@
       <c r="AU891" s="2"/>
       <c r="AV891" s="2"/>
     </row>
-    <row r="892" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -45372,7 +45371,7 @@
       <c r="AU892" s="2"/>
       <c r="AV892" s="2"/>
     </row>
-    <row r="893" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -45422,7 +45421,7 @@
       <c r="AU893" s="2"/>
       <c r="AV893" s="2"/>
     </row>
-    <row r="894" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -45472,7 +45471,7 @@
       <c r="AU894" s="2"/>
       <c r="AV894" s="2"/>
     </row>
-    <row r="895" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -45522,7 +45521,7 @@
       <c r="AU895" s="2"/>
       <c r="AV895" s="2"/>
     </row>
-    <row r="896" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -45572,7 +45571,7 @@
       <c r="AU896" s="2"/>
       <c r="AV896" s="2"/>
     </row>
-    <row r="897" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -45622,7 +45621,7 @@
       <c r="AU897" s="2"/>
       <c r="AV897" s="2"/>
     </row>
-    <row r="898" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -45672,7 +45671,7 @@
       <c r="AU898" s="2"/>
       <c r="AV898" s="2"/>
     </row>
-    <row r="899" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -45722,7 +45721,7 @@
       <c r="AU899" s="2"/>
       <c r="AV899" s="2"/>
     </row>
-    <row r="900" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -45772,7 +45771,7 @@
       <c r="AU900" s="2"/>
       <c r="AV900" s="2"/>
     </row>
-    <row r="901" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -45822,7 +45821,7 @@
       <c r="AU901" s="2"/>
       <c r="AV901" s="2"/>
     </row>
-    <row r="902" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -45872,7 +45871,7 @@
       <c r="AU902" s="2"/>
       <c r="AV902" s="2"/>
     </row>
-    <row r="903" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -45922,7 +45921,7 @@
       <c r="AU903" s="2"/>
       <c r="AV903" s="2"/>
     </row>
-    <row r="904" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -45972,7 +45971,7 @@
       <c r="AU904" s="2"/>
       <c r="AV904" s="2"/>
     </row>
-    <row r="905" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -46022,7 +46021,7 @@
       <c r="AU905" s="2"/>
       <c r="AV905" s="2"/>
     </row>
-    <row r="906" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -46072,7 +46071,7 @@
       <c r="AU906" s="2"/>
       <c r="AV906" s="2"/>
     </row>
-    <row r="907" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -46122,7 +46121,7 @@
       <c r="AU907" s="2"/>
       <c r="AV907" s="2"/>
     </row>
-    <row r="908" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -46172,7 +46171,7 @@
       <c r="AU908" s="2"/>
       <c r="AV908" s="2"/>
     </row>
-    <row r="909" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -46222,7 +46221,7 @@
       <c r="AU909" s="2"/>
       <c r="AV909" s="2"/>
     </row>
-    <row r="910" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -46272,7 +46271,7 @@
       <c r="AU910" s="2"/>
       <c r="AV910" s="2"/>
     </row>
-    <row r="911" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -46322,7 +46321,7 @@
       <c r="AU911" s="2"/>
       <c r="AV911" s="2"/>
     </row>
-    <row r="912" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -46372,7 +46371,7 @@
       <c r="AU912" s="2"/>
       <c r="AV912" s="2"/>
     </row>
-    <row r="913" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -46422,7 +46421,7 @@
       <c r="AU913" s="2"/>
       <c r="AV913" s="2"/>
     </row>
-    <row r="914" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -46472,7 +46471,7 @@
       <c r="AU914" s="2"/>
       <c r="AV914" s="2"/>
     </row>
-    <row r="915" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -46522,7 +46521,7 @@
       <c r="AU915" s="2"/>
       <c r="AV915" s="2"/>
     </row>
-    <row r="916" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -46572,7 +46571,7 @@
       <c r="AU916" s="2"/>
       <c r="AV916" s="2"/>
     </row>
-    <row r="917" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -46622,7 +46621,7 @@
       <c r="AU917" s="2"/>
       <c r="AV917" s="2"/>
     </row>
-    <row r="918" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -46672,7 +46671,7 @@
       <c r="AU918" s="2"/>
       <c r="AV918" s="2"/>
     </row>
-    <row r="919" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -46722,7 +46721,7 @@
       <c r="AU919" s="2"/>
       <c r="AV919" s="2"/>
     </row>
-    <row r="920" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -46772,7 +46771,7 @@
       <c r="AU920" s="2"/>
       <c r="AV920" s="2"/>
     </row>
-    <row r="921" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -46822,7 +46821,7 @@
       <c r="AU921" s="2"/>
       <c r="AV921" s="2"/>
     </row>
-    <row r="922" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -46872,7 +46871,7 @@
       <c r="AU922" s="2"/>
       <c r="AV922" s="2"/>
     </row>
-    <row r="923" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -46922,7 +46921,7 @@
       <c r="AU923" s="2"/>
       <c r="AV923" s="2"/>
     </row>
-    <row r="924" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -46972,7 +46971,7 @@
       <c r="AU924" s="2"/>
       <c r="AV924" s="2"/>
     </row>
-    <row r="925" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -47022,7 +47021,7 @@
       <c r="AU925" s="2"/>
       <c r="AV925" s="2"/>
     </row>
-    <row r="926" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -47072,7 +47071,7 @@
       <c r="AU926" s="2"/>
       <c r="AV926" s="2"/>
     </row>
-    <row r="927" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -47122,7 +47121,7 @@
       <c r="AU927" s="2"/>
       <c r="AV927" s="2"/>
     </row>
-    <row r="928" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -47172,7 +47171,7 @@
       <c r="AU928" s="2"/>
       <c r="AV928" s="2"/>
     </row>
-    <row r="929" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -47222,7 +47221,7 @@
       <c r="AU929" s="2"/>
       <c r="AV929" s="2"/>
     </row>
-    <row r="930" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -47272,7 +47271,7 @@
       <c r="AU930" s="2"/>
       <c r="AV930" s="2"/>
     </row>
-    <row r="931" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -47322,7 +47321,7 @@
       <c r="AU931" s="2"/>
       <c r="AV931" s="2"/>
     </row>
-    <row r="932" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -47372,7 +47371,7 @@
       <c r="AU932" s="2"/>
       <c r="AV932" s="2"/>
     </row>
-    <row r="933" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -47422,7 +47421,7 @@
       <c r="AU933" s="2"/>
       <c r="AV933" s="2"/>
     </row>
-    <row r="934" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -47472,7 +47471,7 @@
       <c r="AU934" s="2"/>
       <c r="AV934" s="2"/>
     </row>
-    <row r="935" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -47522,7 +47521,7 @@
       <c r="AU935" s="2"/>
       <c r="AV935" s="2"/>
     </row>
-    <row r="936" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -47572,7 +47571,7 @@
       <c r="AU936" s="2"/>
       <c r="AV936" s="2"/>
     </row>
-    <row r="937" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -47622,7 +47621,7 @@
       <c r="AU937" s="2"/>
       <c r="AV937" s="2"/>
     </row>
-    <row r="938" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -47672,7 +47671,7 @@
       <c r="AU938" s="2"/>
       <c r="AV938" s="2"/>
     </row>
-    <row r="939" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -47722,7 +47721,7 @@
       <c r="AU939" s="2"/>
       <c r="AV939" s="2"/>
     </row>
-    <row r="940" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -47772,7 +47771,7 @@
       <c r="AU940" s="2"/>
       <c r="AV940" s="2"/>
     </row>
-    <row r="941" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -47822,7 +47821,7 @@
       <c r="AU941" s="2"/>
       <c r="AV941" s="2"/>
     </row>
-    <row r="942" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -47872,7 +47871,7 @@
       <c r="AU942" s="2"/>
       <c r="AV942" s="2"/>
     </row>
-    <row r="943" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -47922,7 +47921,7 @@
       <c r="AU943" s="2"/>
       <c r="AV943" s="2"/>
     </row>
-    <row r="944" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -47972,7 +47971,7 @@
       <c r="AU944" s="2"/>
       <c r="AV944" s="2"/>
     </row>
-    <row r="945" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -48022,7 +48021,7 @@
       <c r="AU945" s="2"/>
       <c r="AV945" s="2"/>
     </row>
-    <row r="946" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -48072,7 +48071,7 @@
       <c r="AU946" s="2"/>
       <c r="AV946" s="2"/>
     </row>
-    <row r="947" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -48122,7 +48121,7 @@
       <c r="AU947" s="2"/>
       <c r="AV947" s="2"/>
     </row>
-    <row r="948" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -48172,7 +48171,7 @@
       <c r="AU948" s="2"/>
       <c r="AV948" s="2"/>
     </row>
-    <row r="949" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -48222,7 +48221,7 @@
       <c r="AU949" s="2"/>
       <c r="AV949" s="2"/>
     </row>
-    <row r="950" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -48272,7 +48271,7 @@
       <c r="AU950" s="2"/>
       <c r="AV950" s="2"/>
     </row>
-    <row r="951" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -48322,7 +48321,7 @@
       <c r="AU951" s="2"/>
       <c r="AV951" s="2"/>
     </row>
-    <row r="952" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -48372,7 +48371,7 @@
       <c r="AU952" s="2"/>
       <c r="AV952" s="2"/>
     </row>
-    <row r="953" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -48422,7 +48421,7 @@
       <c r="AU953" s="2"/>
       <c r="AV953" s="2"/>
     </row>
-    <row r="954" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -48472,7 +48471,7 @@
       <c r="AU954" s="2"/>
       <c r="AV954" s="2"/>
     </row>
-    <row r="955" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -48522,7 +48521,7 @@
       <c r="AU955" s="2"/>
       <c r="AV955" s="2"/>
     </row>
-    <row r="956" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -48572,7 +48571,7 @@
       <c r="AU956" s="2"/>
       <c r="AV956" s="2"/>
     </row>
-    <row r="957" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -48622,7 +48621,7 @@
       <c r="AU957" s="2"/>
       <c r="AV957" s="2"/>
     </row>
-    <row r="958" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -48672,7 +48671,7 @@
       <c r="AU958" s="2"/>
       <c r="AV958" s="2"/>
     </row>
-    <row r="959" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -48722,7 +48721,7 @@
       <c r="AU959" s="2"/>
       <c r="AV959" s="2"/>
     </row>
-    <row r="960" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -48772,7 +48771,7 @@
       <c r="AU960" s="2"/>
       <c r="AV960" s="2"/>
     </row>
-    <row r="961" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -48822,7 +48821,7 @@
       <c r="AU961" s="2"/>
       <c r="AV961" s="2"/>
     </row>
-    <row r="962" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -48872,7 +48871,7 @@
       <c r="AU962" s="2"/>
       <c r="AV962" s="2"/>
     </row>
-    <row r="963" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -48922,7 +48921,7 @@
       <c r="AU963" s="2"/>
       <c r="AV963" s="2"/>
     </row>
-    <row r="964" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -48972,7 +48971,7 @@
       <c r="AU964" s="2"/>
       <c r="AV964" s="2"/>
     </row>
-    <row r="965" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -49022,7 +49021,7 @@
       <c r="AU965" s="2"/>
       <c r="AV965" s="2"/>
     </row>
-    <row r="966" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -49072,7 +49071,7 @@
       <c r="AU966" s="2"/>
       <c r="AV966" s="2"/>
     </row>
-    <row r="967" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -49122,7 +49121,7 @@
       <c r="AU967" s="2"/>
       <c r="AV967" s="2"/>
     </row>
-    <row r="968" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -49172,7 +49171,7 @@
       <c r="AU968" s="2"/>
       <c r="AV968" s="2"/>
     </row>
-    <row r="969" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -49222,7 +49221,7 @@
       <c r="AU969" s="2"/>
       <c r="AV969" s="2"/>
     </row>
-    <row r="970" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -49272,7 +49271,7 @@
       <c r="AU970" s="2"/>
       <c r="AV970" s="2"/>
     </row>
-    <row r="971" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -49322,7 +49321,7 @@
       <c r="AU971" s="2"/>
       <c r="AV971" s="2"/>
     </row>
-    <row r="972" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -49372,7 +49371,7 @@
       <c r="AU972" s="2"/>
       <c r="AV972" s="2"/>
     </row>
-    <row r="973" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -49422,7 +49421,7 @@
       <c r="AU973" s="2"/>
       <c r="AV973" s="2"/>
     </row>
-    <row r="974" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -49472,7 +49471,7 @@
       <c r="AU974" s="2"/>
       <c r="AV974" s="2"/>
     </row>
-    <row r="975" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -49522,7 +49521,7 @@
       <c r="AU975" s="2"/>
       <c r="AV975" s="2"/>
     </row>
-    <row r="976" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -49572,7 +49571,7 @@
       <c r="AU976" s="2"/>
       <c r="AV976" s="2"/>
     </row>
-    <row r="977" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -49622,7 +49621,7 @@
       <c r="AU977" s="2"/>
       <c r="AV977" s="2"/>
     </row>
-    <row r="978" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -49672,7 +49671,7 @@
       <c r="AU978" s="2"/>
       <c r="AV978" s="2"/>
     </row>
-    <row r="979" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -49722,7 +49721,7 @@
       <c r="AU979" s="2"/>
       <c r="AV979" s="2"/>
     </row>
-    <row r="980" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -49772,7 +49771,7 @@
       <c r="AU980" s="2"/>
       <c r="AV980" s="2"/>
     </row>
-    <row r="981" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -49822,7 +49821,7 @@
       <c r="AU981" s="2"/>
       <c r="AV981" s="2"/>
     </row>
-    <row r="982" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -49872,7 +49871,7 @@
       <c r="AU982" s="2"/>
       <c r="AV982" s="2"/>
     </row>
-    <row r="983" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -49922,7 +49921,7 @@
       <c r="AU983" s="2"/>
       <c r="AV983" s="2"/>
     </row>
-    <row r="984" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -49972,7 +49971,7 @@
       <c r="AU984" s="2"/>
       <c r="AV984" s="2"/>
     </row>
-    <row r="985" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -50022,7 +50021,7 @@
       <c r="AU985" s="2"/>
       <c r="AV985" s="2"/>
     </row>
-    <row r="986" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -50072,7 +50071,7 @@
       <c r="AU986" s="2"/>
       <c r="AV986" s="2"/>
     </row>
-    <row r="987" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -50122,7 +50121,7 @@
       <c r="AU987" s="2"/>
       <c r="AV987" s="2"/>
     </row>
-    <row r="988" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -50172,7 +50171,7 @@
       <c r="AU988" s="2"/>
       <c r="AV988" s="2"/>
     </row>
-    <row r="989" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -50222,7 +50221,7 @@
       <c r="AU989" s="2"/>
       <c r="AV989" s="2"/>
     </row>
-    <row r="990" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -50272,7 +50271,7 @@
       <c r="AU990" s="2"/>
       <c r="AV990" s="2"/>
     </row>
-    <row r="991" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -50322,7 +50321,7 @@
       <c r="AU991" s="2"/>
       <c r="AV991" s="2"/>
     </row>
-    <row r="992" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -50372,7 +50371,7 @@
       <c r="AU992" s="2"/>
       <c r="AV992" s="2"/>
     </row>
-    <row r="993" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -50422,7 +50421,7 @@
       <c r="AU993" s="2"/>
       <c r="AV993" s="2"/>
     </row>
-    <row r="994" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -50472,7 +50471,7 @@
       <c r="AU994" s="2"/>
       <c r="AV994" s="2"/>
     </row>
-    <row r="995" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -50522,7 +50521,7 @@
       <c r="AU995" s="2"/>
       <c r="AV995" s="2"/>
     </row>
-    <row r="996" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>

--- a/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
+++ b/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF09035C-5E97-41BD-9C4E-DB3EFF32546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F798C79-2C8E-441C-B58E-000C17546BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
+++ b/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F798C79-2C8E-441C-B58E-000C17546BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D39D88F-F95A-4961-AC0A-3D5D8DF61CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -287,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
+++ b/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D888B300-3DD3-4B3F-802D-C78C9102D8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99BED69-D0C1-48E2-BBCC-EDEE0CA679EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -287,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,7 +587,7 @@
   <dimension ref="A1:XFB996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
+++ b/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99BED69-D0C1-48E2-BBCC-EDEE0CA679EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706FD168-5B27-48B4-AB82-5C1B81113572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
+++ b/Data Files/Input Validation/31. district/Auto_District_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706FD168-5B27-48B4-AB82-5C1B81113572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9450D-15F9-40D2-B064-D82D3602C333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
